--- a/spreadsheet/security_checklist.en.xlsx
+++ b/spreadsheet/security_checklist.en.xlsx
@@ -1652,18 +1652,18 @@
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Recommendations</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>All recommendations remediated or disabled if not required.</t>
+          <t>If using Azure AD Application proxy, consider integrating with Microsoft Defender for Cloud Apps to monitor application access in real-time and apply advanced security controls.</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
+          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1703,17 +1703,13 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Security Score&gt;70%</t>
-        </is>
-      </c>
-      <c r="D21" s="22" t="inlineStr">
-        <is>
-          <t>Microsoft minimum target for all customers is 70%</t>
-        </is>
-      </c>
+          <t>All recommendations remediated or disabled if not required.</t>
+        </is>
+      </c>
+      <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1724,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1732,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
+          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1748,18 +1744,22 @@
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Secuity Alerts</t>
+          <t>Recommendations</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Security Alerts contain only those generated in the past 24 hours (remediate or disable older security alerts)</t>
-        </is>
-      </c>
-      <c r="D22" s="22" t="n"/>
+          <t>Security Score&gt;70%</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="inlineStr">
+        <is>
+          <t>Microsoft minimum target for all customers is 70%</t>
+        </is>
+      </c>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1770,7 +1770,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1778,7 +1778,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
+          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1794,12 +1794,12 @@
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Workbooks</t>
+          <t>Secuity Alerts</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>If continuous export is enabled, default workbooks published to custom security dashboard</t>
+          <t>Security Alerts contain only those generated in the past 24 hours (remediate or disable older security alerts)</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1816,7 +1816,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1824,7 +1824,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
+          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Community</t>
+          <t>Workbooks</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Customer is aware of the value of the 'Community' page and has a regular cadence set up to review</t>
+          <t>If continuous export is enabled, default workbooks published to custom security dashboard</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1862,7 +1862,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
+          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1870,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
+          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1886,22 +1886,18 @@
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Secure Score</t>
+          <t>Community</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>All subscriptions protected by Security Center are shown (no subscription filter set)</t>
-        </is>
-      </c>
-      <c r="D25" s="22" t="inlineStr">
-        <is>
-          <t>Customer Operational best practice - Transparency</t>
-        </is>
-      </c>
+          <t>Customer is aware of the value of the 'Community' page and has a regular cadence set up to review</t>
+        </is>
+      </c>
+      <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1912,7 +1908,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1920,7 +1916,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
+          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1936,15 +1932,19 @@
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Regulatory Compliance</t>
+          <t>Secure Score</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Compliance controls are green for any required compliance requirements</t>
-        </is>
-      </c>
-      <c r="D26" s="22" t="n"/>
+          <t>All subscriptions protected by Security Center are shown (no subscription filter set)</t>
+        </is>
+      </c>
+      <c r="D26" s="22" t="inlineStr">
+        <is>
+          <t>Customer Operational best practice - Transparency</t>
+        </is>
+      </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -1958,7 +1958,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1966,7 +1966,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
+          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1982,19 +1982,15 @@
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender</t>
+          <t>Regulatory Compliance</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>High severity VM vulnerabilities is zero (empty)</t>
-        </is>
-      </c>
-      <c r="D27" s="22" t="inlineStr">
-        <is>
-          <t>Customer Operational best practice - verify</t>
-        </is>
-      </c>
+          <t>Compliance controls are green for any required compliance requirements</t>
+        </is>
+      </c>
+      <c r="D27" s="22" t="n"/>
       <c r="E27" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -2008,14 +2004,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
+          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2031,18 +2027,22 @@
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>Azure Defender</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Hubs are protected by an Azure Firewall</t>
-        </is>
-      </c>
-      <c r="D28" s="22" t="n"/>
+          <t>High severity VM vulnerabilities is zero (empty)</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="inlineStr">
+        <is>
+          <t>Customer Operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2053,14 +2053,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
+          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2081,14 +2081,10 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Virtual Networks are protected by a Firewall</t>
-        </is>
-      </c>
-      <c r="D29" s="22" t="inlineStr">
-        <is>
-          <t>Customer Operational best practice - verify</t>
-        </is>
-      </c>
+          <t>Hubs are protected by an Azure Firewall</t>
+        </is>
+      </c>
+      <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2102,14 +2098,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
+          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2130,10 +2126,14 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>DDoS Standard enabled</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="n"/>
+          <t>Virtual Networks are protected by a Firewall</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="inlineStr">
+        <is>
+          <t>Customer Operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2147,14 +2147,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
+          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2170,18 +2170,18 @@
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Coverage</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Verify that all subscriptions are covered (see pricing and settings to modify)</t>
+          <t>DDoS Standard enabled</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2192,14 +2192,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
+          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2210,17 +2210,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Public IPs</t>
+          <t>Coverage</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">VM's with public IPs should be protected by NSG </t>
+          <t>Verify that all subscriptions are covered (see pricing and settings to modify)</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2237,7 +2237,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2245,7 +2245,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
+          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2266,14 +2266,10 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>VMs with public IPs are moved  behind Azure Firewall Premium</t>
-        </is>
-      </c>
-      <c r="D33" s="22" t="inlineStr">
-        <is>
-          <t>Customer operational best practice -  verify</t>
-        </is>
-      </c>
+          <t xml:space="preserve">VM's with public IPs should be protected by NSG </t>
+        </is>
+      </c>
+      <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -2295,7 +2291,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
+          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2316,12 +2312,12 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>VM's that don't need public IPs do not have public IPs (i.e. internal RDP only)</t>
+          <t>VMs with public IPs are moved  behind Azure Firewall Premium</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>Customer operational best practice - verify</t>
+          <t>Customer operational best practice -  verify</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
@@ -2337,7 +2333,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2345,7 +2341,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
+          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2361,18 +2357,22 @@
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Public IPs</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>NSG RBAC is used to restrict access to network security team</t>
-        </is>
-      </c>
-      <c r="D35" s="22" t="n"/>
+          <t>VM's that don't need public IPs do not have public IPs (i.e. internal RDP only)</t>
+        </is>
+      </c>
+      <c r="D35" s="22" t="inlineStr">
+        <is>
+          <t>Customer operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2383,7 +2383,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2391,7 +2391,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
+          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2412,17 +2412,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>NSG Inbound security rules do not contain a * (wildcard) in Source field</t>
-        </is>
-      </c>
-      <c r="D36" s="22" t="inlineStr">
-        <is>
-          <t>Customer operational best practice - verify</t>
-        </is>
-      </c>
+          <t>NSG RBAC is used to restrict access to network security team</t>
+        </is>
+      </c>
+      <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2441,7 +2437,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
+          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2462,7 +2458,7 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>NSG outbound security rules are used to control traffic to specific IP addresses for traffic not routed through a Firewall</t>
+          <t>NSG Inbound security rules do not contain a * (wildcard) in Source field</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
@@ -2472,7 +2468,7 @@
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2491,7 +2487,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
+          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2512,7 +2508,7 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>NSG do not have Source as a * (wildcard) in place.</t>
+          <t>NSG outbound security rules are used to control traffic to specific IP addresses for traffic not routed through a Firewall</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
@@ -2522,7 +2518,7 @@
       </c>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2541,7 +2537,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
+          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2562,13 +2558,17 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>NSG Diagnostics send NetworkSecurityGroupEvent and NetworkSecurityGroupRuleCounter traffic to Sentinel LAW</t>
-        </is>
-      </c>
-      <c r="D39" s="22" t="n"/>
+          <t>NSG do not have Source as a * (wildcard) in place.</t>
+        </is>
+      </c>
+      <c r="D39" s="22" t="inlineStr">
+        <is>
+          <t>Customer operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2579,7 +2579,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2587,7 +2587,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
+          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2603,12 +2603,12 @@
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>UDR RBAC is used to restrict access to the network security team</t>
+          <t>NSG Diagnostics send NetworkSecurityGroupEvent and NetworkSecurityGroupRuleCounter traffic to Sentinel LAW</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2625,7 +2625,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2633,7 +2633,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
+          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2654,13 +2654,13 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>If Zero Trust, then UDR's are used to send all traffic to the Azure Firewall Premium</t>
+          <t>UDR RBAC is used to restrict access to the network security team</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2679,7 +2679,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
+          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2700,17 +2700,13 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>UDR's that do not send all traffic to AzureFirewallPremium are known and documented.</t>
-        </is>
-      </c>
-      <c r="D42" s="22" t="inlineStr">
-        <is>
-          <t>Customer operational best practice - verify</t>
-        </is>
-      </c>
+          <t>If Zero Trust, then UDR's are used to send all traffic to the Azure Firewall Premium</t>
+        </is>
+      </c>
+      <c r="D42" s="22" t="n"/>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2729,7 +2725,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
+          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2745,18 +2741,22 @@
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Virtual Networks</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Customer is familiar with Azure networking defaults / SDN default routing in Azure</t>
-        </is>
-      </c>
-      <c r="D43" s="22" t="n"/>
+          <t>UDR's that do not send all traffic to AzureFirewallPremium are known and documented.</t>
+        </is>
+      </c>
+      <c r="D43" s="22" t="inlineStr">
+        <is>
+          <t>Customer operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2767,7 +2767,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2775,7 +2775,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
+          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2796,17 +2796,13 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>VNet RBAC is used to restrict access to the network security team</t>
-        </is>
-      </c>
-      <c r="D44" s="22" t="inlineStr">
-        <is>
-          <t>Customer operational best practice - verify</t>
-        </is>
-      </c>
+          <t>Customer is familiar with Azure networking defaults / SDN default routing in Azure</t>
+        </is>
+      </c>
+      <c r="D44" s="22" t="n"/>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2817,7 +2813,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2825,7 +2821,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
+          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2846,13 +2842,17 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">VNet Security recommendations are remediated and there are no 'At-risk' VNets </t>
-        </is>
-      </c>
-      <c r="D45" s="22" t="n"/>
+          <t>VNet RBAC is used to restrict access to the network security team</t>
+        </is>
+      </c>
+      <c r="D45" s="22" t="inlineStr">
+        <is>
+          <t>Customer operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2863,14 +2863,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
+          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
+          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>VNet Peering connections are understood and expected traffic flows are documented</t>
+          <t xml:space="preserve">VNet Security recommendations are remediated and there are no 'At-risk' VNets </t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2908,7 +2908,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2916,7 +2916,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
+          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>VNet Service Endpoints are in use, no legacy Public Service Endpoints exist</t>
+          <t>VNet Peering connections are understood and expected traffic flows are documented</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -2954,7 +2954,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2962,7 +2962,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
+          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>VNet Private Endpoings are in use to allow access from on-premises environments, no legacy public endpoints exist</t>
+          <t>VNet Service Endpoints are in use, no legacy Public Service Endpoints exist</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3000,14 +3000,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
+          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>VNet Monitoring enabled</t>
+          <t>VNet Private Endpoings are in use to allow access from on-premises environments, no legacy public endpoints exist</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3045,14 +3045,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
+          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>VNet Kubernetes - covered under Security Center</t>
+          <t>VNet Monitoring enabled</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3090,7 +3090,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3098,7 +3098,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>2055b29b-ade4-4aad-8e8c-39ec94666731</t>
+          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>VNet NVA (appliances) customer follows published architecture pattern</t>
+          <t>VNet Kubernetes - covered under Security Center</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3136,7 +3136,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3144,7 +3144,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
+          <t>2055b29b-ade4-4aad-8e8c-39ec94666731</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>VNet Diagnostic settings are enabled and sending VMProtectionAlerts to the Azure Sentinel LAW</t>
+          <t>VNet NVA (appliances) customer follows published architecture pattern</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3182,7 +3182,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3190,7 +3190,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
+          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3206,12 +3206,12 @@
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Virtual Networks</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Use ExpressRoute or VPN to access Azure resources from on-premises environments</t>
+          <t>VNet Diagnostic settings are enabled and sending VMProtectionAlerts to the Azure Sentinel LAW</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3228,14 +3228,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
+          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3251,12 +3251,12 @@
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Global Reach</t>
+          <t>Connectivity</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Customer is using Global Reach  to connect privately to services running in other regions</t>
+          <t>Use ExpressRoute or VPN to access Azure resources from on-premises environments</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3273,7 +3273,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-set-global-reach-portal</t>
+          <t>https://docs.microsoft.com/azure/expressroute/</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3281,7 +3281,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>3818bafa-2cf2-4149-b013-a923ce574dcc</t>
+          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Global Reach</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>VWAN RBAC is used to restrict access to the network security team</t>
+          <t>Customer is using Global Reach  to connect privately to services running in other regions</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3319,14 +3319,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-set-global-reach-portal</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
+          <t>3818bafa-2cf2-4149-b013-a923ce574dcc</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>VWAN Customer is using Secure Hub or external Firewall to route and monitor traffic.</t>
+          <t>VWAN RBAC is used to restrict access to the network security team</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3364,14 +3364,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
+          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Application Gateway</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>AppGW RBAC is used to restrict access to the network security team</t>
+          <t>VWAN Customer is using Secure Hub or external Firewall to route and monitor traffic.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3409,14 +3409,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
+          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW All external facing web services are behing Application Gateways with WAF enabled </t>
+          <t>AppGW RBAC is used to restrict access to the network security team</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3454,14 +3454,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
+          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW All internal facing web services are behing Application Gateways with WAF enabled </t>
+          <t xml:space="preserve">AppGW All external facing web services are behing Application Gateways with WAF enabled </t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3506,7 +3506,7 @@
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
+          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>AppGW - External facing has TLS/SSL enabled and redirects all traffic to 443 (no port 80 traffic)</t>
+          <t xml:space="preserve">AppGW All internal facing web services are behing Application Gateways with WAF enabled </t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3544,14 +3544,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
+          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3567,12 +3567,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Front Door RBAC is used to restrict access to the network security team</t>
+          <t>AppGW - External facing has TLS/SSL enabled and redirects all traffic to 443 (no port 80 traffic)</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3589,14 +3589,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
+          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Front Door is associated with a WAF policy</t>
+          <t>Front Door RBAC is used to restrict access to the network security team</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3634,14 +3634,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
+          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Front Door TLS/SSL policy is configured</t>
+          <t>Front Door is associated with a WAF policy</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3679,7 +3679,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3687,7 +3687,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
+          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Front Door redirect port 80 to port 443 is configured (listeners)</t>
+          <t>Front Door TLS/SSL policy is configured</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3725,7 +3725,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3733,7 +3733,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
+          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Front Door diagnostics logs send ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog to Sentinel LAW</t>
+          <t>Front Door redirect port 80 to port 443 is configured (listeners)</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3771,7 +3771,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3779,7 +3779,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
+          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3795,12 +3795,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>DDOS Protection</t>
+          <t>FrontDoor</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Enabled for Firewall public  IP's  (all public IPs)</t>
+          <t>Front Door diagnostics logs send ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog to Sentinel LAW</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3817,14 +3817,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
+          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3835,17 +3835,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Tenant</t>
+          <t>DDOS Protection</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Establish a single enterprise directory for managing identities of full-time employees and enterprise resources.</t>
+          <t>Enabled for Firewall public  IP's  (all public IPs)</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3862,7 +3862,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3870,7 +3870,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
+          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Synchronize your cloud identity with your existing identity systems.</t>
+          <t>Establish a single enterprise directory for managing identities of full-time employees and enterprise resources.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -3908,7 +3908,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
+          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3916,7 +3916,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
+          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Use cloud identity services to host non-employee accounts such as vendors, partners, and customers, rather than rather than including them in your on-premises directory.</t>
+          <t>Synchronize your cloud identity with your existing identity systems.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3954,7 +3954,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
+          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3962,7 +3962,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
+          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Disable insecure legacy protocols for internet-facing services.</t>
+          <t>Use cloud identity services to host non-employee accounts such as vendors, partners, and customers, rather than rather than including them in your on-premises directory.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4000,7 +4000,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
+          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4008,7 +4008,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
+          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Enable single sign-on</t>
+          <t>Disable insecure legacy protocols for internet-facing services.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4046,7 +4046,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
+          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4054,7 +4054,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
+          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Privileged administration</t>
+          <t>Tenant</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Don’t synchronize accounts with the highest privilege access to on-premises resources as you synchronize your enterprise identity systems with cloud directories.</t>
+          <t>Enable single sign-on</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4092,7 +4092,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4100,7 +4100,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
+          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Global Administrators to less than 5</t>
+          <t>Don’t synchronize accounts with the highest privilege access to on-premises resources as you synchronize your enterprise identity systems with cloud directories.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4138,7 +4138,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
+          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4146,7 +4146,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
+          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Use groups for Azure AD role assignments and delegate the role assignment</t>
+          <t>Limit the number of Global Administrators to less than 5</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4184,7 +4184,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4192,7 +4192,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
+          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Ensure all critical impact admins are managed by enterprise directory to follow organizational policy enforcement.</t>
+          <t>Use groups for Azure AD role assignments and delegate the role assignment</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4230,7 +4230,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4238,7 +4238,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
+          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Configure recurring access reviews to revoke unneeded permissions over time</t>
+          <t>Ensure all critical impact admins are managed by enterprise directory to follow organizational policy enforcement.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4276,7 +4276,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4284,7 +4284,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
+          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4305,13 +4305,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Ensure critical impact admins use a workstation with elevated security protections and monitoring</t>
+          <t>Configure recurring access reviews to revoke unneeded permissions over time</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4322,7 +4322,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4330,7 +4330,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
+          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4346,18 +4346,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>External Identities</t>
+          <t>Privileged administration</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Identity Providers: Verify external identity providers are known</t>
+          <t>Ensure critical impact admins use a workstation with elevated security protections and monitoring</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4368,7 +4368,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4376,7 +4376,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
+          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>External Collaboration Settings: Guest user access set to 'Guest user access is restricted?'</t>
+          <t>Identity Providers: Verify external identity providers are known</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4414,7 +4414,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4422,7 +4422,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
+          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>External Collaboration Settings: Guest invite settings set to  'Only users assigned to specific admin roles'</t>
+          <t>External Collaboration Settings: Guest user access set to 'Guest user access is restricted?'</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4468,7 +4468,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
+          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">External Collaboration Settings: Enable guest self-service sign up via flows set  to 'Disabled' </t>
+          <t>External Collaboration Settings: Guest invite settings set to  'Only users assigned to specific admin roles'</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4514,7 +4514,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
+          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>External Collaboration Settings: Collaboration restrictions set to 'Allow invitations to the specified domains'</t>
+          <t xml:space="preserve">External Collaboration Settings: Enable guest self-service sign up via flows set  to 'Disabled' </t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4560,7 +4560,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
+          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4581,13 +4581,13 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Access Reviews: Enabled for all groups</t>
+          <t>External Collaboration Settings: Collaboration restrictions set to 'Allow invitations to the specified domains'</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4598,7 +4598,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4606,7 +4606,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
+          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4622,12 +4622,12 @@
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Enterprise Applications</t>
+          <t>External Identities</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Consent &amp; Permissions: Allow user consent for apps from verified publishers</t>
+          <t>Access Reviews: Enabled for all groups</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4644,7 +4644,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/develop/application-consent-experience</t>
+          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4652,7 +4652,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
+          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consent &amp; Permissions: Allow group owner consent for selected group owners </t>
+          <t>Consent &amp; Permissions: Allow user consent for apps from verified publishers</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4698,7 +4698,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
+          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4714,18 +4714,18 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Custom Domains</t>
+          <t>Enterprise Applications</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Only validated customer domains are registered</t>
+          <t xml:space="preserve">Consent &amp; Permissions: Allow group owner consent for selected group owners </t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4736,7 +4736,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
+          <t>https://docs.microsoft.com/azure/active-directory/develop/application-consent-experience</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4744,7 +4744,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
+          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4760,12 +4760,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Password Reset</t>
+          <t>Custom Domains</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Self-service password reset policy requirement verified compliant.</t>
+          <t>Only validated customer domains are registered</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4782,7 +4782,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4790,7 +4790,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
+          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4811,13 +4811,13 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Set number of days before users are asked to re-confirm authentication information is not set to zero</t>
+          <t>Self-service password reset policy requirement verified compliant.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4828,7 +4828,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4836,7 +4836,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
+          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4857,13 +4857,13 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Set number of methods required to reset password are selected</t>
+          <t>Set number of days before users are asked to re-confirm authentication information is not set to zero</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4882,7 +4882,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
+          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>User Setting</t>
+          <t>Password Reset</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Disable 'Users can register applications'</t>
+          <t>Set number of methods required to reset password are selected</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4920,7 +4920,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4928,7 +4928,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
+          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Restrict access to Administrative portal (portal.azure.com) to administrators only</t>
+          <t>Disable 'Users can register applications'</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4974,7 +4974,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
+          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Disable 'LinkedIn account connection'</t>
+          <t>Restrict access to Administrative portal (portal.azure.com) to administrators only</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5012,7 +5012,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5020,7 +5020,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
+          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Diagnostic Settings</t>
+          <t>User Setting</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Enabled and send to Log Analytics workspace with Sentinel</t>
+          <t>Disable 'LinkedIn account connection'</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5058,7 +5058,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
+          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
+          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>PIM enabled</t>
+          <t>Diagnostic Settings</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Privileged Identity Management enabled</t>
+          <t>Enabled and send to Log Analytics workspace with Sentinel</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5104,7 +5104,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5112,7 +5112,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
+          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Implement 'just in time' (JIT) access to further lower the exposure time for privileged accounts (reduce standing access)</t>
+          <t>Privileged Identity Management enabled</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5150,7 +5150,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
+          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5174,12 +5174,12 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Conditional Access Policies</t>
+          <t>PIM enabled</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Configure conditional access policies / Access Controls</t>
+          <t>Implement 'just in time' (JIT) access to further lower the exposure time for privileged accounts (reduce standing access)</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5196,7 +5196,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5204,7 +5204,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
+          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5225,13 +5225,13 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Conditions: Restricted Locations</t>
+          <t>Configure conditional access policies / Access Controls</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5242,7 +5242,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5250,7 +5250,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
+          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5271,13 +5271,13 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Access Controls:  MFA enabled for all users</t>
+          <t>Conditions: Restricted Locations</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5288,7 +5288,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5296,7 +5296,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
+          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5317,13 +5317,13 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Access Controls:  Require MFA for Administrators</t>
+          <t>Access Controls:  MFA enabled for all users</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5334,7 +5334,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5342,7 +5342,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
+          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5363,13 +5363,13 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Access Controls:  Require MFA for Azure Management </t>
+          <t>Access Controls:  Require MFA for Administrators</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5380,7 +5380,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5388,7 +5388,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
+          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Access Controls:  Block Legacy Protocols</t>
+          <t xml:space="preserve">Access Controls:  Require MFA for Azure Management </t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5426,7 +5426,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5434,7 +5434,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
+          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Access Controls: Require devices to be marked as compliant</t>
+          <t>Access Controls:  Block Legacy Protocols</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5472,7 +5472,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
+          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5496,22 +5496,18 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Guest users</t>
+          <t>Conditional Access Policies</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Is there a policy to track guest user accounts (i.e. usage/delete/disable)?</t>
-        </is>
-      </c>
-      <c r="D103" s="22" t="inlineStr">
-        <is>
-          <t>Customer documented policy</t>
-        </is>
-      </c>
+          <t>Access Controls: Require devices to be marked as compliant</t>
+        </is>
+      </c>
+      <c r="D103" s="22" t="n"/>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5522,7 +5518,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://devblogs.microsoft.com/premier-developer/azure-active-directory-automating-guest-user-management/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5530,7 +5526,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>a7144351-e19d-4d34-929e-b7228137a151</t>
+          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5546,18 +5542,22 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Identity Secure Score</t>
+          <t>Guest users</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Implement Identity Secure Score based on best practices in your industry</t>
-        </is>
-      </c>
-      <c r="D104" s="22" t="n"/>
+          <t>Is there a policy to track guest user accounts (i.e. usage/delete/disable)?</t>
+        </is>
+      </c>
+      <c r="D104" s="22" t="inlineStr">
+        <is>
+          <t>Customer documented policy</t>
+        </is>
+      </c>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5568,7 +5568,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/identity-secure-score</t>
+          <t>https://devblogs.microsoft.com/premier-developer/azure-active-directory-automating-guest-user-management/</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5576,7 +5576,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>c5bb4e4f-1814-4287-b5ca-8c26c9b32ab5</t>
+          <t>a7144351-e19d-4d34-929e-b7228137a151</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5592,18 +5592,18 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Break Glass Accounts</t>
+          <t>Identity Secure Score</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>At least two break glass accounts have been created and policy around their use exists</t>
+          <t>Implement Identity Secure Score based on best practices in your industry</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5614,7 +5614,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/identity-secure-score</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5622,7 +5622,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
+          <t>c5bb4e4f-1814-4287-b5ca-8c26c9b32ab5</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5633,23 +5633,23 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t>Break Glass Accounts</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Control VM Access leveraging Azure Policy</t>
+          <t>At least two break glass accounts have been created and policy around their use exists</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5660,7 +5660,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5668,7 +5668,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
+          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5689,13 +5689,13 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Reduce variability in your setup and deployment of VMs by leveraging templates</t>
+          <t>Control VM Access leveraging Azure Policy</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5706,7 +5706,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
+          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Secure privileged access to deploy VMS by reducing who has access to Resources through Governance</t>
+          <t>Reduce variability in your setup and deployment of VMs by leveraging templates</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5752,7 +5752,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5760,7 +5760,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
+          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">High Availability </t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use multiple VMs for your workloads for better availability </t>
+          <t>Secure privileged access to deploy VMS by reducing who has access to Resources through Governance</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -5798,7 +5798,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
+          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5806,7 +5806,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
+          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deploy and test a disaster recovery solution </t>
+          <t xml:space="preserve">Use multiple VMs for your workloads for better availability </t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -5844,7 +5844,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
+          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,7 +5852,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
+          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Availabilty sets</t>
+          <t xml:space="preserve">Deploy and test a disaster recovery solution </t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -5890,14 +5890,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
+          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Availability Zones</t>
+          <t>Availabilty sets</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -5935,7 +5935,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5943,7 +5943,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
+          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Regional fault tolerance </t>
+          <t>Availability Zones</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -5989,7 +5989,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
+          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6005,18 +6005,18 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Protect against malware</t>
+          <t xml:space="preserve">High Availability </t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Install antimalware solutions</t>
+          <t xml:space="preserve">Regional fault tolerance </t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6027,7 +6027,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-services</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6035,7 +6035,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
+          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Integrate antimalware solution with Security Center</t>
+          <t>Install antimalware solutions</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6073,14 +6073,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-services</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
+          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Manage VM Updates</t>
+          <t>Protect against malware</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Keep VMs up to date using Update Management with Azure Automation</t>
+          <t>Integrate antimalware solution with Security Center</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6118,14 +6118,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
+          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6146,13 +6146,13 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure Windows images for deployment have the most recent level of updates </t>
+          <t>Keep VMs up to date using Update Management with Azure Automation</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6163,14 +6163,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
+          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6191,13 +6191,13 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Rapidly apply security updates to VMs using Microsoft Defender for Cloud</t>
+          <t xml:space="preserve">Ensure Windows images for deployment have the most recent level of updates </t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>02145901-465d-438e-9309-ccbd979266bc</t>
+          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6232,12 +6232,12 @@
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Encrypt your VHDs</t>
+          <t>Manage VM Updates</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Enable encryption on your VMs</t>
+          <t>Rapidly apply security updates to VMs using Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6254,14 +6254,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/active-directory-certificate-based-authentication-get-started</t>
+          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
+          <t>02145901-465d-438e-9309-ccbd979266bc</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Add Key Encryption Key (KEK) for added layer of security for encryption </t>
+          <t>Enable encryption on your VMs</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6299,7 +6299,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/keys/hsm-protected-keys</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/active-directory-certificate-based-authentication-get-started</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6307,7 +6307,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
+          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6328,13 +6328,13 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Take a snapshot of disks before encryption for rollback purposes</t>
+          <t xml:space="preserve">Add Key Encryption Key (KEK) for added layer of security for encryption </t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
       <c r="E121" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6345,7 +6345,7 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
+          <t>https://docs.microsoft.com/azure/key-vault/keys/hsm-protected-keys</t>
         </is>
       </c>
       <c r="I121" s="16" t="n"/>
@@ -6353,7 +6353,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
+          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6369,18 +6369,18 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restrict direct internet connection </t>
+          <t>Encrypt your VHDs</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure only the central networking group has permissions to networking resources </t>
+          <t>Take a snapshot of disks before encryption for rollback purposes</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
       <c r="E122" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6391,7 +6391,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
         </is>
       </c>
       <c r="I122" s="16" t="n"/>
@@ -6399,7 +6399,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>5173676a-e466-491e-a835-ad942223e138</t>
+          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Identity and remediate exposed VMs that allow access from 'ANY' source IP addess</t>
+          <t xml:space="preserve">Ensure only the central networking group has permissions to networking resources </t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6437,7 +6437,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
         </is>
       </c>
       <c r="I123" s="16" t="n"/>
@@ -6445,7 +6445,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
+          <t>5173676a-e466-491e-a835-ad942223e138</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Restrict management ports (RDP, SSH) using Just-in-Time Access</t>
+          <t>Identity and remediate exposed VMs that allow access from 'ANY' source IP addess</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6483,7 +6483,7 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="I124" s="16" t="n"/>
@@ -6491,7 +6491,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
+          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Remove internat access and implement jump servers for RDP</t>
+          <t>Restrict management ports (RDP, SSH) using Just-in-Time Access</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6529,7 +6529,7 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
         </is>
       </c>
       <c r="I125" s="16" t="n"/>
@@ -6537,7 +6537,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
+          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Remove direct logging into servers using RDP/SSH from internet and implement VPN or express route</t>
+          <t>Remove internat access and implement jump servers for RDP</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6575,14 +6575,14 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
+          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
+          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Bastion as your RDP/SSH broker for added security and reduction in footprint</t>
+          <t>Remove direct logging into servers using RDP/SSH from internet and implement VPN or express route</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6620,14 +6620,14 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
+          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6638,17 +6638,17 @@
     <row r="128" ht="16.5" customHeight="1" s="13">
       <c r="A128" s="22" t="inlineStr">
         <is>
-          <t>Sentinel</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Architecture </t>
+          <t xml:space="preserve">Restrict direct internet connection </t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>All tenants contain have Sentinel enabled on at least one Log Analytics workspace</t>
+          <t>Leverage Azure Bastion as your RDP/SSH broker for added security and reduction in footprint</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6665,14 +6665,14 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
+          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Customer understands Sentinel architecture</t>
+          <t>All tenants contain have Sentinel enabled on at least one Log Analytics workspace</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6710,14 +6710,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
+          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6738,13 +6738,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Customer knows how to monitor Incidents across multiple Sentinel instances</t>
+          <t>Customer understands Sentinel architecture</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6755,14 +6755,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/investigate-cases?WT.mc_id=azuresentinel_portalcard_inproduct_incidents</t>
+          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
+          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6778,12 +6778,12 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t xml:space="preserve">Architecture </t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>No Incidents open more than 24 hours</t>
+          <t>Customer knows how to monitor Incidents across multiple Sentinel instances</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -6800,14 +6800,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/multiple-tenants-service-providers</t>
+          <t>https://docs.microsoft.com/azure/sentinel/investigate-cases?WT.mc_id=azuresentinel_portalcard_inproduct_incidents</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
+          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6823,18 +6823,18 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>News &amp; Guides</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Customer have been shown the News &amp; Guides tab</t>
+          <t>No Incidents open more than 24 hours</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
       <c r="E132" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6845,14 +6845,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
+          <t>https://docs.microsoft.com/azure/sentinel/multiple-tenants-service-providers</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
+          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -6868,18 +6868,18 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">UEBA </t>
+          <t>News &amp; Guides</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>UEBA Configured (Sentinel/Settings/Settings/Configure UEBA)</t>
+          <t>Customer have been shown the News &amp; Guides tab</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
       <c r="E133" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6890,14 +6890,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
+          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -6913,18 +6913,18 @@
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>Data Connectors</t>
+          <t xml:space="preserve">UEBA </t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory in configured and 'Last Log Received' shows today</t>
+          <t>UEBA Configured (Sentinel/Settings/Settings/Configure UEBA)</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
       <c r="E134" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -6935,14 +6935,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
+          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
+          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory Identity Protection is configured and 'Last Log Received' shows today</t>
+          <t>Azure Active Directory in configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -6980,14 +6980,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/identity-protection/overview-identity-protection</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
+          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Azure Activity is configured  is configured and 'Last Log Received' shows today</t>
+          <t>Azure Active Directory Identity Protection is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7025,14 +7025,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/active-directory/identity-protection/overview-identity-protection</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
+          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender  is configured and 'Last Log Received' shows today</t>
+          <t>Azure Activity is configured  is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7077,7 +7077,7 @@
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
+          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall  is configured and 'Last Log Received' shows today</t>
+          <t>Azure Defender  is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7122,7 +7122,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
+          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Windows Firewall is configured and 'Last Log Received' shows today</t>
+          <t>Azure Firewall  is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7167,7 +7167,7 @@
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
+          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Security Events is configured with AMA and 'Last Log Received' shows today</t>
+          <t>Windows Firewall is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7212,7 +7212,7 @@
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
+          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Security Events - verify Azure computers are connected and sending data to the workspace</t>
+          <t>Security Events is configured with AMA and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7257,7 +7257,7 @@
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
+          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Security Events - verify non-Azure computers are connected and sending data to the workspace</t>
+          <t>Security Events - verify Azure computers are connected and sending data to the workspace</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7302,7 +7302,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
+          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Connector for AWS</t>
+          <t>Security Events - verify non-Azure computers are connected and sending data to the workspace</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7347,7 +7347,7 @@
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
+          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Connector for GCP</t>
+          <t>Connector for AWS</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7392,7 +7392,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
+          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7408,12 +7408,12 @@
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>Analytics Rules</t>
+          <t>Data Connectors</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Customer has enabled Analytics rules and configured Incidents </t>
+          <t>Connector for GCP</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7430,14 +7430,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
+          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7453,18 +7453,18 @@
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>Settings</t>
+          <t>Analytics Rules</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Customer does not have a daily cap enabled</t>
+          <t xml:space="preserve">Customer has enabled Analytics rules and configured Incidents </t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
       <c r="E146" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7475,14 +7475,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
+          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
+          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7493,23 +7493,23 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Sentinel</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>Configuration</t>
+          <t>Settings</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium deployed</t>
+          <t>Customer does not have a daily cap enabled</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
       <c r="E147" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7520,14 +7520,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/overview</t>
+          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
+          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Quad zero/force tunning enabled through Azure Firewall</t>
+          <t>Azure Firewall Premium deployed</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7565,14 +7565,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/azure-firewall-forced-tunneling-and-sql-fqdn-filtering-now-generally-available/</t>
+          <t>https://docs.microsoft.com/azure/firewall/overview</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
+          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7588,18 +7588,18 @@
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t>Configuration</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>RBAC set to enable only authorized users</t>
+          <t>Quad zero/force tunning enabled through Azure Firewall</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7610,14 +7610,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://azure.microsoft.com/blog/azure-firewall-forced-tunneling-and-sql-fqdn-filtering-now-generally-available/</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
+          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7633,12 +7633,12 @@
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Diagnostic Settings</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnostics enabled and sending metrics to a Log Analytics workspace </t>
+          <t>RBAC set to enable only authorized users</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7655,14 +7655,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
+          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7678,18 +7678,18 @@
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>Diagnostic Settings</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Hubs and virtual networks are protected or connected through Firewall Premium</t>
+          <t xml:space="preserve">Diagnostics enabled and sending metrics to a Log Analytics workspace </t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7700,14 +7700,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
+          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Policy: Access controls are configured (RBAC)</t>
+          <t>Hubs and virtual networks are protected or connected through Firewall Premium</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -7745,14 +7745,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
+          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Policy: Parent policy is configured </t>
+          <t>Policy: Access controls are configured (RBAC)</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -7790,14 +7790,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
+          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Policy: Rule collections are defined</t>
+          <t xml:space="preserve">Policy: Parent policy is configured </t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -7835,14 +7835,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
+          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Policy: DNAT policies are defined</t>
+          <t>Policy: Rule collections are defined</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -7887,7 +7887,7 @@
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
+          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Policy: Network rules are defined</t>
+          <t>Policy: DNAT policies are defined</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -7932,7 +7932,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
+          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Policy: Application rules are defined</t>
+          <t>Policy: Network rules are defined</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -7970,14 +7970,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/features</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
+          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -7998,13 +7998,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>DNS: Feature understood and applied or not applied</t>
+          <t>Policy: Application rules are defined</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8015,14 +8015,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://docs.microsoft.com/azure/firewall/features</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
+          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8043,13 +8043,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Threat Intelligence: Set to Alert &amp; Deny</t>
+          <t>DNS: Feature understood and applied or not applied</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8060,14 +8060,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/threat-intelligence-based-filtering-for-azure-firewall-is-now-available-in-preview/</t>
+          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
+          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Threat Intelligence: Allowed list (justify if they are being used - ie performance)</t>
+          <t>Threat Intelligence: Set to Alert &amp; Deny</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8112,7 +8112,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
+          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>TLS enabled</t>
+          <t>Threat Intelligence: Allowed list (justify if they are being used - ie performance)</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8150,14 +8150,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/certificate-management-overview-for-azure-firewall-premium-tls/ba-p/2214763</t>
+          <t>https://azure.microsoft.com/updates/threat-intelligence-based-filtering-for-azure-firewall-is-now-available-in-preview/</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
+          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>IDPS enabled</t>
+          <t>TLS enabled</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8195,14 +8195,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/certificate-management-overview-for-azure-firewall-premium-tls/ba-p/2214763</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
+          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SNAT: Configured </t>
+          <t>IDPS enabled</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8240,14 +8240,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
+          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8263,18 +8263,18 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>DDOS Protection</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Enabled for Firewall public  IP's</t>
+          <t xml:space="preserve">SNAT: Configured </t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8285,14 +8285,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8301,109 +8301,315 @@
       <c r="P164" s="26" t="n"/>
     </row>
     <row r="165" ht="16.5" customHeight="1" s="13">
-      <c r="A165" s="22" t="n"/>
-      <c r="B165" s="22" t="n"/>
-      <c r="C165" s="22" t="n"/>
+      <c r="A165" s="22" t="inlineStr">
+        <is>
+          <t>Azure Firewall</t>
+        </is>
+      </c>
+      <c r="B165" s="22" t="inlineStr">
+        <is>
+          <t>DDOS Protection</t>
+        </is>
+      </c>
+      <c r="C165" s="22" t="inlineStr">
+        <is>
+          <t>Enabled for Firewall public  IP's</t>
+        </is>
+      </c>
       <c r="D165" s="22" t="n"/>
-      <c r="E165" s="22" t="n"/>
+      <c r="E165" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G165" s="22" t="n"/>
-      <c r="H165" s="16" t="n"/>
+      <c r="H165" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+        </is>
+      </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
-      <c r="L165" s="26" t="n"/>
+      <c r="L165" s="26" t="inlineStr">
+        <is>
+          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+        </is>
+      </c>
       <c r="M165" s="26" t="n"/>
       <c r="N165" s="26" t="n"/>
       <c r="O165" s="26" t="n"/>
       <c r="P165" s="26" t="n"/>
     </row>
     <row r="166" ht="16.5" customHeight="1" s="13">
-      <c r="A166" s="22" t="n"/>
-      <c r="B166" s="22" t="n"/>
-      <c r="C166" s="22" t="n"/>
+      <c r="A166" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B166" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C166" s="22" t="inlineStr">
+        <is>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D166" s="22" t="n"/>
-      <c r="E166" s="22" t="n"/>
+      <c r="E166" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G166" s="22" t="n"/>
-      <c r="H166" s="16" t="n"/>
+      <c r="H166" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
-      <c r="L166" s="26" t="n"/>
+      <c r="L166" s="26" t="inlineStr">
+        <is>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+        </is>
+      </c>
       <c r="M166" s="26" t="n"/>
       <c r="N166" s="26" t="n"/>
       <c r="O166" s="26" t="n"/>
       <c r="P166" s="26" t="n"/>
     </row>
     <row r="167" ht="16.5" customHeight="1" s="13">
-      <c r="A167" s="22" t="n"/>
-      <c r="B167" s="22" t="n"/>
-      <c r="C167" s="22" t="n"/>
+      <c r="A167" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B167" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C167" s="22" t="inlineStr">
+        <is>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+        </is>
+      </c>
       <c r="D167" s="22" t="n"/>
-      <c r="E167" s="22" t="n"/>
+      <c r="E167" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G167" s="22" t="n"/>
-      <c r="H167" s="16" t="n"/>
+      <c r="H167" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
-      <c r="L167" s="26" t="n"/>
+      <c r="L167" s="26" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M167" s="26" t="n"/>
       <c r="N167" s="26" t="n"/>
       <c r="O167" s="26" t="n"/>
       <c r="P167" s="26" t="n"/>
     </row>
     <row r="168" ht="16.5" customHeight="1" s="13">
-      <c r="A168" s="22" t="n"/>
-      <c r="B168" s="22" t="n"/>
-      <c r="C168" s="22" t="n"/>
+      <c r="A168" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B168" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C168" s="22" t="inlineStr">
+        <is>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+        </is>
+      </c>
       <c r="D168" s="22" t="n"/>
-      <c r="E168" s="22" t="n"/>
+      <c r="E168" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G168" s="22" t="n"/>
-      <c r="H168" s="16" t="n"/>
+      <c r="H168" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
-      <c r="L168" s="26" t="n"/>
+      <c r="L168" s="26" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M168" s="26" t="n"/>
       <c r="N168" s="26" t="n"/>
       <c r="O168" s="26" t="n"/>
       <c r="P168" s="26" t="n"/>
     </row>
     <row r="169" ht="16.5" customHeight="1" s="13">
-      <c r="A169" s="22" t="n"/>
-      <c r="B169" s="22" t="n"/>
-      <c r="C169" s="22" t="n"/>
+      <c r="A169" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B169" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C169" s="22" t="inlineStr">
+        <is>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+        </is>
+      </c>
       <c r="D169" s="22" t="n"/>
-      <c r="E169" s="22" t="n"/>
+      <c r="E169" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G169" s="22" t="n"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
-      <c r="L169" s="26" t="n"/>
+      <c r="L169" s="26" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M169" s="26" t="n"/>
       <c r="N169" s="26" t="n"/>
       <c r="O169" s="26" t="n"/>
       <c r="P169" s="26" t="n"/>
     </row>
     <row r="170" ht="16.5" customHeight="1" s="13">
-      <c r="A170" s="22" t="n"/>
-      <c r="B170" s="22" t="n"/>
-      <c r="C170" s="22" t="n"/>
+      <c r="A170" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B170" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C170" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D170" s="22" t="n"/>
-      <c r="E170" s="22" t="n"/>
+      <c r="E170" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G170" s="22" t="n"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
-      <c r="L170" s="26" t="n"/>
+      <c r="L170" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M170" s="26" t="n"/>
       <c r="N170" s="26" t="n"/>
       <c r="O170" s="26" t="n"/>
       <c r="P170" s="26" t="n"/>
     </row>
     <row r="171" ht="16.5" customHeight="1" s="13">
-      <c r="A171" s="22" t="n"/>
-      <c r="B171" s="22" t="n"/>
-      <c r="C171" s="22" t="n"/>
+      <c r="A171" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B171" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C171" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D171" s="22" t="n"/>
-      <c r="E171" s="22" t="n"/>
+      <c r="E171" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G171" s="22" t="n"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
-      <c r="L171" s="26" t="n"/>
+      <c r="L171" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M171" s="26" t="n"/>
       <c r="N171" s="26" t="n"/>
       <c r="O171" s="26" t="n"/>
@@ -10461,8 +10667,14 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation sqref="F8:F165" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F166" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10477,7 +10689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G6"/>
@@ -10742,6 +10954,13 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Application Deployment</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/spreadsheet/security_checklist.en.xlsx
+++ b/spreadsheet/security_checklist.en.xlsx
@@ -1214,7 +1214,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/faq-data-collection-agents</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Defender services are all enabled </t>
+          <t>Defender for Cloud enhanced security features are all enabled</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -2813,7 +2813,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>VNet Private Endpoings are in use to allow access from on-premises environments, no legacy public endpoints exist</t>
+          <t>VNet Private Endpoints are in use to allow access from on-premises environments, no legacy public endpoints exist</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>VNet Kubernetes - covered under Security Center</t>
+          <t>Secure traffic between pods using network policies in Azure Kubernetes Service (AKS)</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3273,7 +3273,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Global Reach</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Customer is using Global Reach  to connect privately to services running in other regions</t>
+          <t>VWAN RBAC is used to restrict access to the network security team</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3319,14 +3319,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-set-global-reach-portal</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>3818bafa-2cf2-4149-b013-a923ce574dcc</t>
+          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>VWAN RBAC is used to restrict access to the network security team</t>
+          <t>VWAN Customer is using Secure Hub or external Firewall to route and monitor traffic.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3364,14 +3364,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
+          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>VWAN Customer is using Secure Hub or external Firewall to route and monitor traffic.</t>
+          <t>AppGW RBAC is used to restrict access to the network security team</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3409,14 +3409,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
+          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>AppGW RBAC is used to restrict access to the network security team</t>
+          <t xml:space="preserve">AppGW All external facing web services are behing Application Gateways with WAF enabled </t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3454,14 +3454,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
+          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW All external facing web services are behing Application Gateways with WAF enabled </t>
+          <t xml:space="preserve">AppGW All internal facing web services are behing Application Gateways with WAF enabled </t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3506,7 +3506,7 @@
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
+          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW All internal facing web services are behing Application Gateways with WAF enabled </t>
+          <t>AppGW - External facing has TLS/SSL enabled and redirects all traffic to 443 (no port 80 traffic)</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3544,14 +3544,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
+          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3567,12 +3567,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Application Gateway</t>
+          <t>FrontDoor</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>AppGW - External facing has TLS/SSL enabled and redirects all traffic to 443 (no port 80 traffic)</t>
+          <t>Front Door RBAC is used to restrict access to the network security team</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3589,14 +3589,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
+          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Front Door RBAC is used to restrict access to the network security team</t>
+          <t>Front Door is associated with a WAF policy</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3634,14 +3634,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
+          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Front Door is associated with a WAF policy</t>
+          <t>Front Door TLS/SSL policy is configured</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3679,7 +3679,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3687,7 +3687,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
+          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Front Door TLS/SSL policy is configured</t>
+          <t>Front Door redirect port 80 to port 443 is configured (listeners)</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3725,7 +3725,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3733,7 +3733,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
+          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Front Door redirect port 80 to port 443 is configured (listeners)</t>
+          <t>Front Door diagnostics logs send ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog to Sentinel LAW</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3771,7 +3771,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3779,7 +3779,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
+          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3795,12 +3795,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>DDOS Protection</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Front Door diagnostics logs send ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog to Sentinel LAW</t>
+          <t>Enabled for Firewall public  IP's  (all public IPs)</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3817,14 +3817,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
+          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3835,17 +3835,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>DDOS Protection</t>
+          <t>Tenant</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Enabled for Firewall public  IP's  (all public IPs)</t>
+          <t>Establish a single enterprise directory for managing identities of full-time employees and enterprise resources.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3862,7 +3862,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3870,7 +3870,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
+          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Establish a single enterprise directory for managing identities of full-time employees and enterprise resources.</t>
+          <t>Synchronize your cloud identity with your existing identity systems.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -3908,7 +3908,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
+          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3916,7 +3916,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
+          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Synchronize your cloud identity with your existing identity systems.</t>
+          <t>Use cloud identity services to host non-employee accounts such as vendors, partners, and customers, rather than rather than including them in your on-premises directory.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3954,7 +3954,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
+          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3962,7 +3962,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
+          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Use cloud identity services to host non-employee accounts such as vendors, partners, and customers, rather than rather than including them in your on-premises directory.</t>
+          <t>Disable insecure legacy protocols for internet-facing services.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4000,7 +4000,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
+          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4008,7 +4008,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
+          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Disable insecure legacy protocols for internet-facing services.</t>
+          <t>Enable single sign-on</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4046,7 +4046,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4054,7 +4054,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
+          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Tenant</t>
+          <t>Privileged administration</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Enable single sign-on</t>
+          <t>Don’t synchronize accounts with the highest privilege access to on-premises resources as you synchronize your enterprise identity systems with cloud directories.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4092,7 +4092,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
+          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4100,7 +4100,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
+          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Don’t synchronize accounts with the highest privilege access to on-premises resources as you synchronize your enterprise identity systems with cloud directories.</t>
+          <t>Limit the number of Global Administrators to less than 5</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4138,7 +4138,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4146,7 +4146,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
+          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Global Administrators to less than 5</t>
+          <t>Use groups for Azure AD role assignments and delegate the role assignment</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4184,7 +4184,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4192,7 +4192,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
+          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use groups for Azure AD role assignments and delegate the role assignment</t>
+          <t>Ensure all critical impact admins are managed by enterprise directory to follow organizational policy enforcement.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4230,7 +4230,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4238,7 +4238,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
+          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Ensure all critical impact admins are managed by enterprise directory to follow organizational policy enforcement.</t>
+          <t>Configure recurring access reviews to revoke unneeded permissions over time</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4276,7 +4276,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4284,7 +4284,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
+          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4305,13 +4305,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Configure recurring access reviews to revoke unneeded permissions over time</t>
+          <t>Ensure critical impact admins use a workstation with elevated security protections and monitoring</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4322,7 +4322,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4330,7 +4330,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
+          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4346,18 +4346,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Privileged administration</t>
+          <t>External Identities</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Ensure critical impact admins use a workstation with elevated security protections and monitoring</t>
+          <t>Identity Providers: Verify external identity providers are known</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4368,7 +4368,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4376,7 +4376,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
+          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Identity Providers: Verify external identity providers are known</t>
+          <t>External Collaboration Settings: Guest user access set to 'Guest user access is restricted?'</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4414,7 +4414,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4422,7 +4422,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
+          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>External Collaboration Settings: Guest user access set to 'Guest user access is restricted?'</t>
+          <t>External Collaboration Settings: Guest invite settings set to  'Only users assigned to specific admin roles'</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4468,7 +4468,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
+          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>External Collaboration Settings: Guest invite settings set to  'Only users assigned to specific admin roles'</t>
+          <t xml:space="preserve">External Collaboration Settings: Enable guest self-service sign up via flows set  to 'Disabled' </t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4514,7 +4514,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
+          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">External Collaboration Settings: Enable guest self-service sign up via flows set  to 'Disabled' </t>
+          <t>External Collaboration Settings: Collaboration restrictions set to 'Allow invitations to the specified domains'</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4560,7 +4560,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
+          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4581,13 +4581,13 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>External Collaboration Settings: Collaboration restrictions set to 'Allow invitations to the specified domains'</t>
+          <t>Access Reviews: Enabled for all groups</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4598,7 +4598,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4606,7 +4606,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
+          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4622,12 +4622,12 @@
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>External Identities</t>
+          <t>Enterprise Applications</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Access Reviews: Enabled for all groups</t>
+          <t>Consent &amp; Permissions: Allow user consent for apps from verified publishers</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4644,7 +4644,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4652,7 +4652,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
+          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Consent &amp; Permissions: Allow user consent for apps from verified publishers</t>
+          <t xml:space="preserve">Consent &amp; Permissions: Allow group owner consent for selected group owners </t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4690,7 +4690,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/develop/application-consent-experience</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4698,7 +4698,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
+          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4714,18 +4714,18 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Enterprise Applications</t>
+          <t>Custom Domains</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consent &amp; Permissions: Allow group owner consent for selected group owners </t>
+          <t>Only validated customer domains are registered</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4736,7 +4736,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/develop/application-consent-experience</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4744,7 +4744,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
+          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4760,12 +4760,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Custom Domains</t>
+          <t>Password Reset</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Only validated customer domains are registered</t>
+          <t>Self-service password reset policy requirement verified compliant.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4782,7 +4782,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4790,7 +4790,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
+          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4811,13 +4811,13 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Self-service password reset policy requirement verified compliant.</t>
+          <t>Set number of days before users are asked to re-confirm authentication information is not set to zero</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4828,7 +4828,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4836,7 +4836,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
+          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4857,13 +4857,13 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Set number of days before users are asked to re-confirm authentication information is not set to zero</t>
+          <t>Set number of methods required to reset password are selected</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4882,7 +4882,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
+          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Password Reset</t>
+          <t>User Setting</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Set number of methods required to reset password are selected</t>
+          <t>Disable 'Users can register applications'</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4920,7 +4920,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4928,7 +4928,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
+          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Disable 'Users can register applications'</t>
+          <t>Restrict access to Administrative portal (portal.azure.com) to administrators only</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4974,7 +4974,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
+          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Restrict access to Administrative portal (portal.azure.com) to administrators only</t>
+          <t>Disable 'LinkedIn account connection'</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5012,7 +5012,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
+          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5020,7 +5020,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
+          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>User Setting</t>
+          <t>Diagnostic Settings</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Disable 'LinkedIn account connection'</t>
+          <t>Enabled and send to Log Analytics workspace with Sentinel</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5058,7 +5058,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
+          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Diagnostic Settings</t>
+          <t>PIM enabled</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Enabled and send to Log Analytics workspace with Sentinel</t>
+          <t>Privileged Identity Management enabled</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5104,7 +5104,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5112,7 +5112,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
+          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Privileged Identity Management enabled</t>
+          <t>Implement 'just in time' (JIT) access to further lower the exposure time for privileged accounts (reduce standing access)</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5150,7 +5150,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
+          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5174,12 +5174,12 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>PIM enabled</t>
+          <t>Conditional Access Policies</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Implement 'just in time' (JIT) access to further lower the exposure time for privileged accounts (reduce standing access)</t>
+          <t>Configure conditional access policies / Access Controls</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5196,7 +5196,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5204,7 +5204,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
+          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5225,13 +5225,13 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Configure conditional access policies / Access Controls</t>
+          <t>Conditions: Restricted Locations</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5242,7 +5242,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5250,7 +5250,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
+          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5271,13 +5271,13 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Conditions: Restricted Locations</t>
+          <t>Access Controls:  MFA enabled for all users</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5288,7 +5288,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5296,7 +5296,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
+          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5317,13 +5317,13 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Access Controls:  MFA enabled for all users</t>
+          <t>Access Controls:  Require MFA for Administrators</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5334,7 +5334,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5342,7 +5342,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
+          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5363,13 +5363,13 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Access Controls:  Require MFA for Administrators</t>
+          <t xml:space="preserve">Access Controls:  Require MFA for Azure Management </t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5380,7 +5380,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5388,7 +5388,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
+          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Access Controls:  Require MFA for Azure Management </t>
+          <t>Access Controls:  Block Legacy Protocols</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5426,7 +5426,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5434,7 +5434,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
+          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Access Controls:  Block Legacy Protocols</t>
+          <t>Access Controls: Require devices to be marked as compliant</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5472,7 +5472,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
+          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5496,18 +5496,22 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Conditional Access Policies</t>
+          <t>Guest users</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Access Controls: Require devices to be marked as compliant</t>
-        </is>
-      </c>
-      <c r="D103" s="22" t="n"/>
+          <t>Is there a policy to track guest user accounts (i.e. usage/delete/disable)?</t>
+        </is>
+      </c>
+      <c r="D103" s="22" t="inlineStr">
+        <is>
+          <t>Customer documented policy</t>
+        </is>
+      </c>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5518,7 +5522,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
+          <t>https://devblogs.microsoft.com/premier-developer/azure-active-directory-automating-guest-user-management/</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5526,7 +5530,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
+          <t>a7144351-e19d-4d34-929e-b7228137a151</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5542,22 +5546,18 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Guest users</t>
+          <t>Identity Secure Score</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Is there a policy to track guest user accounts (i.e. usage/delete/disable)?</t>
-        </is>
-      </c>
-      <c r="D104" s="22" t="inlineStr">
-        <is>
-          <t>Customer documented policy</t>
-        </is>
-      </c>
+          <t>Implement Identity Secure Score based on best practices in your industry</t>
+        </is>
+      </c>
+      <c r="D104" s="22" t="n"/>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5568,7 +5568,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://devblogs.microsoft.com/premier-developer/azure-active-directory-automating-guest-user-management/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/identity-secure-score</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5576,7 +5576,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>a7144351-e19d-4d34-929e-b7228137a151</t>
+          <t>c5bb4e4f-1814-4287-b5ca-8c26c9b32ab5</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5592,18 +5592,18 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Identity Secure Score</t>
+          <t>Break Glass Accounts</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Implement Identity Secure Score based on best practices in your industry</t>
+          <t>At least two break glass accounts have been created and policy around their use exists</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5614,7 +5614,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/identity-secure-score</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5622,7 +5622,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>c5bb4e4f-1814-4287-b5ca-8c26c9b32ab5</t>
+          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5633,23 +5633,23 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Break Glass Accounts</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>At least two break glass accounts have been created and policy around their use exists</t>
+          <t>Control VM Access leveraging Azure Policy</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5660,7 +5660,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5668,7 +5668,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
+          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5689,13 +5689,13 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Control VM Access leveraging Azure Policy</t>
+          <t>Reduce variability in your setup and deployment of VMs by leveraging templates</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5706,7 +5706,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
+          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Reduce variability in your setup and deployment of VMs by leveraging templates</t>
+          <t>Secure privileged access to deploy VMS by reducing who has access to Resources through Governance</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5752,7 +5752,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
+          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5760,7 +5760,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
+          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t xml:space="preserve">High Availability </t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Secure privileged access to deploy VMS by reducing who has access to Resources through Governance</t>
+          <t xml:space="preserve">Use multiple VMs for your workloads for better availability </t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -5798,7 +5798,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
+          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5806,7 +5806,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
+          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use multiple VMs for your workloads for better availability </t>
+          <t xml:space="preserve">Deploy and test a disaster recovery solution </t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -5844,7 +5844,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,7 +5852,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
+          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deploy and test a disaster recovery solution </t>
+          <t>Availabilty sets</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -5890,14 +5890,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
+          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Availabilty sets</t>
+          <t>Availability Zones</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -5935,7 +5935,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5943,7 +5943,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
+          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Availability Zones</t>
+          <t xml:space="preserve">Regional fault tolerance </t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -5981,7 +5981,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5989,7 +5989,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
+          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6005,18 +6005,18 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">High Availability </t>
+          <t>Protect against malware</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Regional fault tolerance </t>
+          <t>Install antimalware solutions</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6027,7 +6027,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6035,7 +6035,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
+          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Install antimalware solutions</t>
+          <t>Integrate antimalware solution with Security Center</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6073,14 +6073,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-services</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
+          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Protect against malware</t>
+          <t>Manage VM Updates</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Integrate antimalware solution with Security Center</t>
+          <t>Keep VMs up to date using Update Management with Azure Automation</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6118,14 +6118,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
+          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6146,13 +6146,13 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Keep VMs up to date using Update Management with Azure Automation</t>
+          <t xml:space="preserve">Ensure Windows images for deployment have the most recent level of updates </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6163,14 +6163,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
+          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6191,13 +6191,13 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure Windows images for deployment have the most recent level of updates </t>
+          <t>Rapidly apply security updates to VMs using Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
+          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
+          <t>02145901-465d-438e-9309-ccbd979266bc</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6232,12 +6232,12 @@
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Manage VM Updates</t>
+          <t>Encrypt your VHDs</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Rapidly apply security updates to VMs using Microsoft Defender for Cloud</t>
+          <t>Enable encryption on your VMs</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6254,14 +6254,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>02145901-465d-438e-9309-ccbd979266bc</t>
+          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Enable encryption on your VMs</t>
+          <t xml:space="preserve">Add Key Encryption Key (KEK) for added layer of security for encryption </t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6299,7 +6299,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/active-directory-certificate-based-authentication-get-started</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6307,7 +6307,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
+          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6328,13 +6328,13 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Add Key Encryption Key (KEK) for added layer of security for encryption </t>
+          <t>Take a snapshot of disks before encryption for rollback purposes</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
       <c r="E121" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6345,7 +6345,7 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/keys/hsm-protected-keys</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
         </is>
       </c>
       <c r="I121" s="16" t="n"/>
@@ -6353,7 +6353,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
+          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6369,18 +6369,18 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>Encrypt your VHDs</t>
+          <t xml:space="preserve">Restrict direct internet connection </t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Take a snapshot of disks before encryption for rollback purposes</t>
+          <t xml:space="preserve">Ensure only the central networking group has permissions to networking resources </t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
       <c r="E122" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6391,7 +6391,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
+          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
         </is>
       </c>
       <c r="I122" s="16" t="n"/>
@@ -6399,7 +6399,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
+          <t>5173676a-e466-491e-a835-ad942223e138</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure only the central networking group has permissions to networking resources </t>
+          <t>Identity and remediate exposed VMs that allow access from 'ANY' source IP addess</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6437,7 +6437,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="I123" s="16" t="n"/>
@@ -6445,7 +6445,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5173676a-e466-491e-a835-ad942223e138</t>
+          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Identity and remediate exposed VMs that allow access from 'ANY' source IP addess</t>
+          <t>Restrict management ports (RDP, SSH) using Just-in-Time Access</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6483,7 +6483,7 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
         </is>
       </c>
       <c r="I124" s="16" t="n"/>
@@ -6491,7 +6491,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
+          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Restrict management ports (RDP, SSH) using Just-in-Time Access</t>
+          <t>Remove internet access and implement jump servers for RDP</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6529,7 +6529,7 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
+          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
         </is>
       </c>
       <c r="I125" s="16" t="n"/>
@@ -6537,7 +6537,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
+          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Remove internat access and implement jump servers for RDP</t>
+          <t>Remove direct logging into servers using RDP/SSH from internet and implement VPN or express route</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6575,14 +6575,14 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
+          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
+          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Remove direct logging into servers using RDP/SSH from internet and implement VPN or express route</t>
+          <t>Leverage Azure Bastion as your RDP/SSH broker for added security and reduction in footprint</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6620,14 +6620,14 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
+          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
+          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6638,17 +6638,17 @@
     <row r="128" ht="16.5" customHeight="1" s="13">
       <c r="A128" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Sentinel</t>
         </is>
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restrict direct internet connection </t>
+          <t xml:space="preserve">Architecture </t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Bastion as your RDP/SSH broker for added security and reduction in footprint</t>
+          <t>All tenants contain have Sentinel enabled on at least one Log Analytics workspace</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6665,14 +6665,14 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
+          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>All tenants contain have Sentinel enabled on at least one Log Analytics workspace</t>
+          <t>Customer understands Sentinel architecture</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6710,14 +6710,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
+          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6738,13 +6738,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Customer understands Sentinel architecture</t>
+          <t>Customer knows how to monitor Incidents across multiple Sentinel instances</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6755,14 +6755,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
+          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
+          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6778,12 +6778,12 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Architecture </t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Customer knows how to monitor Incidents across multiple Sentinel instances</t>
+          <t>No Incidents open more than 24 hours</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -6800,14 +6800,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/investigate-cases?WT.mc_id=azuresentinel_portalcard_inproduct_incidents</t>
+          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
+          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6823,18 +6823,18 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>News &amp; Guides</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>No Incidents open more than 24 hours</t>
+          <t>Customer have been shown the News &amp; Guides tab</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
       <c r="E132" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6845,14 +6845,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/multiple-tenants-service-providers</t>
+          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
+          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -6868,18 +6868,18 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t>News &amp; Guides</t>
+          <t xml:space="preserve">UEBA </t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Customer have been shown the News &amp; Guides tab</t>
+          <t>UEBA Configured (Sentinel/Settings/Settings/Configure UEBA)</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
       <c r="E133" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6890,14 +6890,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
+          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
+          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -6913,18 +6913,18 @@
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">UEBA </t>
+          <t>Data Connectors</t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>UEBA Configured (Sentinel/Settings/Settings/Configure UEBA)</t>
+          <t>Azure Active Directory in configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
       <c r="E134" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -6935,14 +6935,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
+          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory in configured and 'Last Log Received' shows today</t>
+          <t>Azure Active Directory Identity Protection is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -6980,14 +6980,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
+          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory Identity Protection is configured and 'Last Log Received' shows today</t>
+          <t>Azure Activity is configured is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7025,14 +7025,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/identity-protection/overview-identity-protection</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
+          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Azure Activity is configured  is configured and 'Last Log Received' shows today</t>
+          <t>Microsoft Defender for Cloud is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7070,14 +7070,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
+          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender  is configured and 'Last Log Received' shows today</t>
+          <t>Azure Firewall is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7115,14 +7115,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
+          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall  is configured and 'Last Log Received' shows today</t>
+          <t>Windows Firewall is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7160,14 +7160,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
+          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Windows Firewall is configured and 'Last Log Received' shows today</t>
+          <t>Security Events is configured with AMA and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7205,14 +7205,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
+          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Security Events is configured with AMA and 'Last Log Received' shows today</t>
+          <t>Security Events - verify Azure computers are connected and sending data to the workspace</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7257,7 +7257,7 @@
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
+          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Security Events - verify Azure computers are connected and sending data to the workspace</t>
+          <t>Security Events - verify non-Azure computers are connected and sending data to the workspace</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7302,7 +7302,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
+          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Security Events - verify non-Azure computers are connected and sending data to the workspace</t>
+          <t>Connector for AWS</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7340,14 +7340,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
+          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Connector for AWS</t>
+          <t>Connector for GCP</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7392,7 +7392,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
+          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7408,12 +7408,12 @@
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>Data Connectors</t>
+          <t>Analytics Rules</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Connector for GCP</t>
+          <t xml:space="preserve">Customer has enabled Analytics rules and configured Incidents </t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7430,14 +7430,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
+          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7453,18 +7453,18 @@
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>Analytics Rules</t>
+          <t>Settings</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Customer has enabled Analytics rules and configured Incidents </t>
+          <t>Customer does not have a daily cap enabled</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
       <c r="E146" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7475,14 +7475,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
+          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
+          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7493,23 +7493,23 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Sentinel</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>Settings</t>
+          <t>Configuration</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Customer does not have a daily cap enabled</t>
+          <t>Azure Firewall Premium deployed</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
       <c r="E147" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7520,14 +7520,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
+          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium deployed</t>
+          <t>Quad zero/force tunning enabled through Azure Firewall</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7565,14 +7565,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
+          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7588,18 +7588,18 @@
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Configuration</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Quad zero/force tunning enabled through Azure Firewall</t>
+          <t>RBAC set to enable only authorized users</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7610,14 +7610,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/azure-firewall-forced-tunneling-and-sql-fqdn-filtering-now-generally-available/</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
+          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7633,12 +7633,12 @@
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t>Diagnostic Settings</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>RBAC set to enable only authorized users</t>
+          <t xml:space="preserve">Diagnostics enabled and sending metrics to a Log Analytics workspace </t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7655,14 +7655,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
+          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7678,18 +7678,18 @@
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Diagnostic Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnostics enabled and sending metrics to a Log Analytics workspace </t>
+          <t>Hubs and virtual networks are protected or connected through Firewall Premium</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7700,14 +7700,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
+          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Hubs and virtual networks are protected or connected through Firewall Premium</t>
+          <t>Policy: Access controls are configured (RBAC)</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -7745,14 +7745,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
+          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Policy: Access controls are configured (RBAC)</t>
+          <t xml:space="preserve">Policy: Parent policy is configured </t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -7790,14 +7790,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
+          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Policy: Parent policy is configured </t>
+          <t>Policy: Rule collections are defined</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -7835,14 +7835,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
+          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Policy: Rule collections are defined</t>
+          <t>Policy: DNAT policies are defined</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -7887,7 +7887,7 @@
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
+          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Policy: DNAT policies are defined</t>
+          <t>Policy: Network rules are defined</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -7932,7 +7932,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
+          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Policy: Network rules are defined</t>
+          <t>Policy: Application rules are defined</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -7970,14 +7970,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/firewall/features</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
+          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -7998,13 +7998,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Policy: Application rules are defined</t>
+          <t>DNS: Feature understood and applied or not applied</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8015,14 +8015,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/features</t>
+          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
+          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8043,13 +8043,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>DNS: Feature understood and applied or not applied</t>
+          <t>Threat Intelligence: Set to Alert &amp; Deny</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8060,14 +8060,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
+          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Threat Intelligence: Set to Alert &amp; Deny</t>
+          <t>Threat Intelligence: Allowed list (justify if they are being used - ie performance)</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8105,14 +8105,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/threat-intelligence-based-filtering-for-azure-firewall-is-now-available-in-preview/</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
+          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Threat Intelligence: Allowed list (justify if they are being used - ie performance)</t>
+          <t>TLS enabled</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8150,14 +8150,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/threat-intelligence-based-filtering-for-azure-firewall-is-now-available-in-preview/</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
+          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>TLS enabled</t>
+          <t>IDPS enabled</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8195,14 +8195,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/certificate-management-overview-for-azure-firewall-premium-tls/ba-p/2214763</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
+          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>IDPS enabled</t>
+          <t xml:space="preserve">SNAT: Configured </t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8240,14 +8240,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
+          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8263,18 +8263,18 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>DDOS Protection</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SNAT: Configured </t>
+          <t>Enabled for Firewall public  IP's</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8285,14 +8285,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
+          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8303,17 +8303,17 @@
     <row r="165" ht="16.5" customHeight="1" s="13">
       <c r="A165" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B165" s="22" t="inlineStr">
         <is>
-          <t>DDOS Protection</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enabled for Firewall public  IP's</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8330,14 +8330,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -10667,14 +10667,26 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="7">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F166" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F165" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/security_checklist.en.xlsx
+++ b/spreadsheet/security_checklist.en.xlsx
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Security Center/Defender enable in all subscriptions</t>
+          <t>RBAC set to enable only authorized users</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1122,7 +1122,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>54174158-33fb-43ae-9c2d-e743165c3acb</t>
+          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Configuration</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Security Center/Defender enabled on all Log Analytics workspaces</t>
+          <t>Azure Firewall Premium deployed</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1168,7 +1168,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>349f0364-d28d-442e-abbb-c868255abc91</t>
+          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Configuration</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Data collection set to 'Common'</t>
+          <t>Quad zero/force tunning enabled through Azure Firewall</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1214,7 +1214,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
+          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>64e9a19a-e28c-484c-93b6-b7818ca0e6c4</t>
+          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,23 +1233,23 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>DDOS Protection</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Defender for Cloud enhanced security features are all enabled</t>
+          <t>Enabled for Firewall public  IP's</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>2149d414-a923-4c35-94d1-1029bd6aaf11</t>
+          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1279,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Diagnostic Settings</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Auto-provisioning enabled as per company policy (policy must exist)</t>
+          <t xml:space="preserve">Diagnostics enabled and sending metrics to a Log Analytics workspace </t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1306,7 +1306,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-enable-data-collection</t>
+          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>e6b84ee5-ef43-4d29-a248-1718d5d1f5f7</t>
+          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1325,23 +1325,23 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Email notifications enabled as per company policy (policy must exist)</t>
+          <t>Hubs and virtual networks are protected or connected through Firewall Premium</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-provide-security-contact-details</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>25759e35-680e-4782-9ac9-32213d027ff4</t>
+          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1371,23 +1371,23 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enable integrations options are selected </t>
+          <t>Policy: Access controls are configured (RBAC)</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1398,7 +1398,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-wdatp?WT.mc_id=Portal-Microsoft_Azure_Security_CloudNativeCompute&amp;tabs=windows</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1406,7 +1406,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>12f70993-0631-4583-9ee7-9d6c6d363206</t>
+          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1417,23 +1417,23 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>CI/CD integration is configured</t>
+          <t xml:space="preserve">Policy: Parent policy is configured </t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1444,7 +1444,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/defender-for-container-registries-cicd</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>5b7abae4-4aad-45e8-a79e-2e86667313c5</t>
+          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1463,17 +1463,17 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Continuous export 'Event Hub' is enabled if using 3rd party SIEM</t>
+          <t>Policy: Rule collections are defined</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>05675c5e-985b-4859-a774-f7e371623b87</t>
+          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1509,23 +1509,23 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Continuous export 'Log Analytics Workspace' is enabled if not using Azure Sentinel</t>
+          <t>Policy: DNAT policies are defined</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-349f-4036-9d28-d42e8bbbc868</t>
+          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1555,17 +1555,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Cloud connector enabled for AWS</t>
+          <t>Policy: Network rules are defined</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1582,7 +1582,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-aws?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>255abc91-64e9-4a19-ae28-c84c43b6b781</t>
+          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1601,17 +1601,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Cloud connector enabled for GCP</t>
+          <t>Policy: Application rules are defined</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1628,7 +1628,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-gcp</t>
+          <t>https://docs.microsoft.com/azure/firewall/features</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>8ca0e6c4-2149-4d41-9a92-3c3574d11029</t>
+          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1647,23 +1647,23 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>If using Azure AD Application proxy, consider integrating with Microsoft Defender for Cloud Apps to monitor application access in real-time and apply advanced security controls.</t>
+          <t>DNS: Feature understood and applied or not applied</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
+          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
+          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1693,23 +1693,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Recommendations</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>All recommendations remediated or disabled if not required.</t>
+          <t>Threat Intelligence: Set to Alert &amp; Deny</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1720,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
+          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,24 +1739,20 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Recommendations</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Security Score&gt;70%</t>
-        </is>
-      </c>
-      <c r="D22" s="22" t="inlineStr">
-        <is>
-          <t>Microsoft minimum target for all customers is 70%</t>
-        </is>
-      </c>
+          <t>Threat Intelligence: Allowed list (justify if they are being used - ie performance)</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -1770,7 +1766,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1778,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
+          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1789,23 +1785,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Secuity Alerts</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Security Alerts contain only those generated in the past 24 hours (remediate or disable older security alerts)</t>
+          <t>TLS enabled</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1816,7 +1812,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1824,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
+          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1835,23 +1831,23 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Workbooks</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>If continuous export is enabled, default workbooks published to custom security dashboard</t>
+          <t>IDPS enabled</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1862,7 +1858,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
+          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1881,23 +1877,23 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Community</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Customer is aware of the value of the 'Community' page and has a regular cadence set up to review</t>
+          <t xml:space="preserve">SNAT: Configured </t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1908,7 +1904,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
+          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1916,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
+          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1927,24 +1923,20 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Secure Score</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>All subscriptions protected by Security Center are shown (no subscription filter set)</t>
-        </is>
-      </c>
-      <c r="D26" s="22" t="inlineStr">
-        <is>
-          <t>Customer Operational best practice - Transparency</t>
-        </is>
-      </c>
+          <t>AppGW RBAC is used to restrict access to the network security team</t>
+        </is>
+      </c>
+      <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -1958,7 +1950,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1966,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
+          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1977,17 +1969,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Regulatory Compliance</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Compliance controls are green for any required compliance requirements</t>
+          <t xml:space="preserve">AppGW All external facing web services are behing Application Gateways with WAF enabled </t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2004,14 +1996,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
+          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2022,24 +2014,20 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>High severity VM vulnerabilities is zero (empty)</t>
-        </is>
-      </c>
-      <c r="D28" s="22" t="inlineStr">
-        <is>
-          <t>Customer Operational best practice - verify</t>
-        </is>
-      </c>
+          <t xml:space="preserve">AppGW All internal facing web services are behing Application Gateways with WAF enabled </t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -2053,14 +2041,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
+          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2071,23 +2059,23 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Hubs are protected by an Azure Firewall</t>
+          <t>AppGW - External facing has TLS/SSL enabled and redirects all traffic to 443 (no port 80 traffic)</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2098,14 +2086,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
+          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2116,27 +2104,23 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>Connectivity</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Virtual Networks are protected by a Firewall</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="inlineStr">
-        <is>
-          <t>Customer Operational best practice - verify</t>
-        </is>
-      </c>
+          <t>Use ExpressRoute or VPN to access Azure resources from on-premises environments</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2147,14 +2131,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
+          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2165,23 +2149,23 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>DDOS Protection</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>DDoS Standard enabled</t>
+          <t>Enabled for Firewall public  IP's  (all public IPs)</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2192,14 +2176,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
+          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2210,17 +2194,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Coverage</t>
+          <t>FrontDoor</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Verify that all subscriptions are covered (see pricing and settings to modify)</t>
+          <t>Front Door RBAC is used to restrict access to the network security team</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2237,7 +2221,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2245,7 +2229,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
+          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2261,12 +2245,12 @@
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Public IPs</t>
+          <t>FrontDoor</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">VM's with public IPs should be protected by NSG </t>
+          <t>Front Door is associated with a WAF policy</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2283,7 +2267,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2291,7 +2275,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
+          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2307,19 +2291,15 @@
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Public IPs</t>
+          <t>FrontDoor</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>VMs with public IPs are moved  behind Azure Firewall Premium</t>
-        </is>
-      </c>
-      <c r="D34" s="22" t="inlineStr">
-        <is>
-          <t>Customer operational best practice -  verify</t>
-        </is>
-      </c>
+          <t>Front Door TLS/SSL policy is configured</t>
+        </is>
+      </c>
+      <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -2333,7 +2313,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2341,7 +2321,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
+          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2357,19 +2337,15 @@
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Public IPs</t>
+          <t>FrontDoor</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>VM's that don't need public IPs do not have public IPs (i.e. internal RDP only)</t>
-        </is>
-      </c>
-      <c r="D35" s="22" t="inlineStr">
-        <is>
-          <t>Customer operational best practice - verify</t>
-        </is>
-      </c>
+          <t>Front Door redirect port 80 to port 443 is configured (listeners)</t>
+        </is>
+      </c>
+      <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -2383,7 +2359,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2391,7 +2367,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
+          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2407,18 +2383,18 @@
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>FrontDoor</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>NSG RBAC is used to restrict access to network security team</t>
+          <t>Front Door diagnostics logs send ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog to Sentinel LAW</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2429,7 +2405,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2437,7 +2413,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
+          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2458,17 +2434,13 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>NSG Inbound security rules do not contain a * (wildcard) in Source field</t>
-        </is>
-      </c>
-      <c r="D37" s="22" t="inlineStr">
-        <is>
-          <t>Customer operational best practice - verify</t>
-        </is>
-      </c>
+          <t>NSG RBAC is used to restrict access to network security team</t>
+        </is>
+      </c>
+      <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2487,7 +2459,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
+          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2508,7 +2480,7 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>NSG outbound security rules are used to control traffic to specific IP addresses for traffic not routed through a Firewall</t>
+          <t>NSG Inbound security rules do not contain a * (wildcard) in Source field</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
@@ -2518,7 +2490,7 @@
       </c>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2537,7 +2509,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
+          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2558,7 +2530,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>NSG do not have Source as a * (wildcard) in place.</t>
+          <t>NSG outbound security rules are used to control traffic to specific IP addresses for traffic not routed through a Firewall</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
@@ -2568,7 +2540,7 @@
       </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2587,7 +2559,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
+          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2608,13 +2580,17 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>NSG Diagnostics send NetworkSecurityGroupEvent and NetworkSecurityGroupRuleCounter traffic to Sentinel LAW</t>
-        </is>
-      </c>
-      <c r="D40" s="22" t="n"/>
+          <t>NSG do not have Source as a * (wildcard) in place.</t>
+        </is>
+      </c>
+      <c r="D40" s="22" t="inlineStr">
+        <is>
+          <t>Customer operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2625,7 +2601,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2633,7 +2609,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
+          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2649,12 +2625,12 @@
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>UDR RBAC is used to restrict access to the network security team</t>
+          <t>NSG Diagnostics send NetworkSecurityGroupEvent and NetworkSecurityGroupRuleCounter traffic to Sentinel LAW</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2671,7 +2647,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2679,7 +2655,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
+          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2695,12 +2671,12 @@
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>Public IPs</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>If Zero Trust, then UDR's are used to send all traffic to the Azure Firewall Premium</t>
+          <t xml:space="preserve">VM's with public IPs should be protected by NSG </t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2717,7 +2693,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2725,7 +2701,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
+          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2741,22 +2717,22 @@
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>Public IPs</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>UDR's that do not send all traffic to AzureFirewallPremium are known and documented.</t>
+          <t>VMs with public IPs are moved  behind Azure Firewall Premium</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>Customer operational best practice - verify</t>
+          <t>Customer operational best practice -  verify</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2767,7 +2743,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2775,7 +2751,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
+          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2791,15 +2767,19 @@
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Virtual Networks</t>
+          <t>Public IPs</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Customer is familiar with Azure networking defaults / SDN default routing in Azure</t>
-        </is>
-      </c>
-      <c r="D44" s="22" t="n"/>
+          <t>VM's that don't need public IPs do not have public IPs (i.e. internal RDP only)</t>
+        </is>
+      </c>
+      <c r="D44" s="22" t="inlineStr">
+        <is>
+          <t>Customer operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -2813,7 +2793,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2821,7 +2801,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
+          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2837,19 +2817,15 @@
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Virtual Networks</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>VNet RBAC is used to restrict access to the network security team</t>
-        </is>
-      </c>
-      <c r="D45" s="22" t="inlineStr">
-        <is>
-          <t>Customer operational best practice - verify</t>
-        </is>
-      </c>
+          <t>UDR RBAC is used to restrict access to the network security team</t>
+        </is>
+      </c>
+      <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2863,14 +2839,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
+          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2886,12 +2862,12 @@
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Virtual Networks</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">VNet Security recommendations are remediated and there are no 'At-risk' VNets </t>
+          <t>If Zero Trust, then UDR's are used to send all traffic to the Azure Firewall Premium</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2908,7 +2884,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2916,7 +2892,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
+          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2932,18 +2908,22 @@
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Virtual Networks</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>VNet Peering connections are understood and expected traffic flows are documented</t>
-        </is>
-      </c>
-      <c r="D47" s="22" t="n"/>
+          <t>UDR's that do not send all traffic to AzureFirewallPremium are known and documented.</t>
+        </is>
+      </c>
+      <c r="D47" s="22" t="inlineStr">
+        <is>
+          <t>Customer operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2954,7 +2934,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2962,7 +2942,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
+          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2983,7 +2963,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>VNet Service Endpoints are in use, no legacy Public Service Endpoints exist</t>
+          <t>Customer is familiar with Azure networking defaults / SDN default routing in Azure</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3000,14 +2980,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
+          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3028,13 +3008,17 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>VNet Private Endpoints are in use to allow access from on-premises environments, no legacy public endpoints exist</t>
-        </is>
-      </c>
-      <c r="D49" s="22" t="n"/>
+          <t>VNet RBAC is used to restrict access to the network security team</t>
+        </is>
+      </c>
+      <c r="D49" s="22" t="inlineStr">
+        <is>
+          <t>Customer operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3045,14 +3029,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
+          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
+          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3073,7 +3057,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>VNet Monitoring enabled</t>
+          <t xml:space="preserve">VNet Security recommendations are remediated and there are no 'At-risk' VNets </t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3090,7 +3074,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3098,7 +3082,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
+          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3119,7 +3103,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Secure traffic between pods using network policies in Azure Kubernetes Service (AKS)</t>
+          <t>VNet Peering connections are understood and expected traffic flows are documented</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3136,7 +3120,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3144,7 +3128,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>2055b29b-ade4-4aad-8e8c-39ec94666731</t>
+          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3165,7 +3149,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>VNet NVA (appliances) customer follows published architecture pattern</t>
+          <t>VNet Service Endpoints are in use, no legacy Public Service Endpoints exist</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3182,7 +3166,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3190,7 +3174,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
+          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3211,7 +3195,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>VNet Diagnostic settings are enabled and sending VMProtectionAlerts to the Azure Sentinel LAW</t>
+          <t>VNet Private Endpoints are in use to allow access from on-premises environments, no legacy public endpoints exist</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3228,14 +3212,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
+          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3251,12 +3235,12 @@
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Virtual Networks</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Use ExpressRoute or VPN to access Azure resources from on-premises environments</t>
+          <t>VNet Monitoring enabled</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3273,7 +3257,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3281,7 +3265,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
+          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3297,12 +3281,12 @@
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Virtual Networks</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>VWAN RBAC is used to restrict access to the network security team</t>
+          <t>Secure traffic between pods using network policies in Azure Kubernetes Service (AKS)</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3319,14 +3303,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
+          <t>2055b29b-ade4-4aad-8e8c-39ec94666731</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3342,12 +3326,12 @@
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Virtual Networks</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>VWAN Customer is using Secure Hub or external Firewall to route and monitor traffic.</t>
+          <t>VNet NVA (appliances) customer follows published architecture pattern</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3364,14 +3348,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
+          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3387,12 +3371,12 @@
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Application Gateway</t>
+          <t>Virtual Networks</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>AppGW RBAC is used to restrict access to the network security team</t>
+          <t>VNet Diagnostic settings are enabled and sending VMProtectionAlerts to the Azure Sentinel LAW</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3409,14 +3393,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
+          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3432,12 +3416,12 @@
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Application Gateway</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW All external facing web services are behing Application Gateways with WAF enabled </t>
+          <t>VWAN RBAC is used to restrict access to the network security team</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3454,14 +3438,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
+          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3477,12 +3461,12 @@
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Application Gateway</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW All internal facing web services are behing Application Gateways with WAF enabled </t>
+          <t>VWAN Customer is using Secure Hub or external Firewall to route and monitor traffic.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3499,14 +3483,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
+          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3517,20 +3501,24 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Application Gateway</t>
+          <t>Azure Defender</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>AppGW - External facing has TLS/SSL enabled and redirects all traffic to 443 (no port 80 traffic)</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="n"/>
+          <t>High severity VM vulnerabilities is zero (empty)</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="inlineStr">
+        <is>
+          <t>Customer Operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E60" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -3544,14 +3532,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
+          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3562,23 +3550,23 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Community</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Front Door RBAC is used to restrict access to the network security team</t>
+          <t>Customer is aware of the value of the 'Community' page and has a regular cadence set up to review</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3589,14 +3577,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
+          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3607,17 +3595,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Coverage</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Front Door is associated with a WAF policy</t>
+          <t>Verify that all subscriptions are covered (see pricing and settings to modify)</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3634,14 +3622,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
+          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3652,23 +3640,23 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Front Door TLS/SSL policy is configured</t>
+          <t>Hubs are protected by an Azure Firewall</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3679,7 +3667,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3687,7 +3675,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
+          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3698,23 +3686,27 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Front Door redirect port 80 to port 443 is configured (listeners)</t>
-        </is>
-      </c>
-      <c r="D64" s="22" t="n"/>
+          <t>Virtual Networks are protected by a Firewall</t>
+        </is>
+      </c>
+      <c r="D64" s="22" t="inlineStr">
+        <is>
+          <t>Customer Operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E64" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3725,7 +3717,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3733,7 +3725,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
+          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3744,23 +3736,23 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Front Door diagnostics logs send ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog to Sentinel LAW</t>
+          <t>DDoS Standard enabled</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3771,7 +3763,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
+          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3779,7 +3771,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
+          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3790,17 +3782,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>DDOS Protection</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Enabled for Firewall public  IP's  (all public IPs)</t>
+          <t>Security Center/Defender enable in all subscriptions</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3817,14 +3809,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
+          <t>54174158-33fb-43ae-9c2d-e743165c3acb</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3835,17 +3827,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Tenant</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Establish a single enterprise directory for managing identities of full-time employees and enterprise resources.</t>
+          <t>Security Center/Defender enabled on all Log Analytics workspaces</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3862,7 +3854,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
+          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3870,7 +3862,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
+          <t>349f0364-d28d-442e-abbb-c868255abc91</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3881,23 +3873,23 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Tenant</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Synchronize your cloud identity with your existing identity systems.</t>
+          <t>Data collection set to 'Common'</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3908,7 +3900,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3916,7 +3908,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
+          <t>64e9a19a-e28c-484c-93b6-b7818ca0e6c4</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3927,17 +3919,17 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>Tenant</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Use cloud identity services to host non-employee accounts such as vendors, partners, and customers, rather than rather than including them in your on-premises directory.</t>
+          <t>Defender for Cloud enhanced security features are all enabled</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3954,7 +3946,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
+          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3962,7 +3954,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
+          <t>2149d414-a923-4c35-94d1-1029bd6aaf11</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3973,23 +3965,23 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>Tenant</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Disable insecure legacy protocols for internet-facing services.</t>
+          <t>Auto-provisioning enabled as per company policy (policy must exist)</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4000,7 +3992,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-enable-data-collection</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4008,7 +4000,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
+          <t>e6b84ee5-ef43-4d29-a248-1718d5d1f5f7</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4019,23 +4011,23 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Tenant</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Enable single sign-on</t>
+          <t>Email notifications enabled as per company policy (policy must exist)</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4046,7 +4038,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-provide-security-contact-details</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4054,7 +4046,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
+          <t>25759e35-680e-4782-9ac9-32213d027ff4</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4065,23 +4057,23 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Privileged administration</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Don’t synchronize accounts with the highest privilege access to on-premises resources as you synchronize your enterprise identity systems with cloud directories.</t>
+          <t xml:space="preserve">Enable integrations options are selected </t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4092,7 +4084,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-wdatp?WT.mc_id=Portal-Microsoft_Azure_Security_CloudNativeCompute&amp;tabs=windows</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4100,7 +4092,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
+          <t>12f70993-0631-4583-9ee7-9d6c6d363206</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4111,23 +4103,23 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Privileged administration</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Global Administrators to less than 5</t>
+          <t>CI/CD integration is configured</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4138,7 +4130,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
+          <t>https://docs.microsoft.com/azure/security-center/defender-for-container-registries-cicd</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4146,7 +4138,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
+          <t>5b7abae4-4aad-45e8-a79e-2e86667313c5</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4157,17 +4149,17 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Privileged administration</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Use groups for Azure AD role assignments and delegate the role assignment</t>
+          <t>Continuous export 'Event Hub' is enabled if using 3rd party SIEM</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4184,7 +4176,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
+          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4192,7 +4184,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
+          <t>05675c5e-985b-4859-a774-f7e371623b87</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4203,23 +4195,23 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Privileged administration</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Ensure all critical impact admins are managed by enterprise directory to follow organizational policy enforcement.</t>
+          <t>Continuous export 'Log Analytics Workspace' is enabled if not using Azure Sentinel</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4230,7 +4222,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
+          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4238,7 +4230,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
+          <t>5a917e1f-349f-4036-9d28-d42e8bbbc868</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4249,17 +4241,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Privileged administration</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Configure recurring access reviews to revoke unneeded permissions over time</t>
+          <t>Cloud connector enabled for AWS</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4276,7 +4268,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
+          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-aws?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4284,7 +4276,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
+          <t>255abc91-64e9-4a19-ae28-c84c43b6b781</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4295,23 +4287,23 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>Privileged administration</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Ensure critical impact admins use a workstation with elevated security protections and monitoring</t>
+          <t>Cloud connector enabled for GCP</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4322,7 +4314,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
+          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-gcp</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4330,7 +4322,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
+          <t>8ca0e6c4-2149-4d41-9a92-3c3574d11029</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4341,23 +4333,23 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>External Identities</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Identity Providers: Verify external identity providers are known</t>
+          <t>If using Azure AD Application proxy, consider integrating with Microsoft Defender for Cloud Apps to monitor application access in real-time and apply advanced security controls.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4368,7 +4360,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
+          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4376,7 +4368,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
+          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4387,23 +4379,23 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>External Identities</t>
+          <t>Recommendations</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>External Collaboration Settings: Guest user access set to 'Guest user access is restricted?'</t>
+          <t>All recommendations remediated or disabled if not required.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4414,7 +4406,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4422,7 +4414,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
+          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4433,20 +4425,24 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>External Identities</t>
+          <t>Recommendations</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>External Collaboration Settings: Guest invite settings set to  'Only users assigned to specific admin roles'</t>
-        </is>
-      </c>
-      <c r="D80" s="22" t="n"/>
+          <t>Security Score&gt;70%</t>
+        </is>
+      </c>
+      <c r="D80" s="22" t="inlineStr">
+        <is>
+          <t>Microsoft minimum target for all customers is 70%</t>
+        </is>
+      </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -4460,7 +4456,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4468,7 +4464,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
+          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4479,17 +4475,17 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>External Identities</t>
+          <t>Regulatory Compliance</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">External Collaboration Settings: Enable guest self-service sign up via flows set  to 'Disabled' </t>
+          <t>Compliance controls are green for any required compliance requirements</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4506,7 +4502,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4514,7 +4510,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
+          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4525,23 +4521,23 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>External Identities</t>
+          <t>Secuity Alerts</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>External Collaboration Settings: Collaboration restrictions set to 'Allow invitations to the specified domains'</t>
+          <t>Security Alerts contain only those generated in the past 24 hours (remediate or disable older security alerts)</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
       <c r="E82" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4552,7 +4548,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4560,7 +4556,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
+          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4571,23 +4567,27 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>External Identities</t>
+          <t>Secure Score</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Access Reviews: Enabled for all groups</t>
-        </is>
-      </c>
-      <c r="D83" s="22" t="n"/>
+          <t>All subscriptions protected by Security Center are shown (no subscription filter set)</t>
+        </is>
+      </c>
+      <c r="D83" s="22" t="inlineStr">
+        <is>
+          <t>Customer Operational best practice - Transparency</t>
+        </is>
+      </c>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4598,7 +4598,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4606,7 +4606,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
+          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4617,17 +4617,17 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Enterprise Applications</t>
+          <t>Workbooks</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Consent &amp; Permissions: Allow user consent for apps from verified publishers</t>
+          <t>If continuous export is enabled, default workbooks published to custom security dashboard</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4644,7 +4644,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
+          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4652,7 +4652,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
+          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4668,12 +4668,12 @@
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Enterprise Applications</t>
+          <t>Break Glass Accounts</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consent &amp; Permissions: Allow group owner consent for selected group owners </t>
+          <t>At least two break glass accounts have been created and policy around their use exists</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4690,7 +4690,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4698,7 +4698,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
+          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4714,12 +4714,12 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Custom Domains</t>
+          <t>Conditional Access Policies</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Only validated customer domains are registered</t>
+          <t>Configure conditional access policies / Access Controls</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4736,7 +4736,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4744,7 +4744,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
+          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4760,18 +4760,18 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Password Reset</t>
+          <t>Conditional Access Policies</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Self-service password reset policy requirement verified compliant.</t>
+          <t>Conditions: Restricted Locations</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4782,7 +4782,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4790,7 +4790,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
+          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4806,18 +4806,18 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Password Reset</t>
+          <t>Conditional Access Policies</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Set number of days before users are asked to re-confirm authentication information is not set to zero</t>
+          <t>Access Controls:  MFA enabled for all users</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4828,7 +4828,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4836,7 +4836,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
+          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4852,18 +4852,18 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Password Reset</t>
+          <t>Conditional Access Policies</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Set number of methods required to reset password are selected</t>
+          <t>Access Controls:  Require MFA for Administrators</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4874,7 +4874,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -4882,7 +4882,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
+          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>User Setting</t>
+          <t>Conditional Access Policies</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Disable 'Users can register applications'</t>
+          <t xml:space="preserve">Access Controls:  Require MFA for Azure Management </t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4920,7 +4920,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4928,7 +4928,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
+          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4944,12 +4944,12 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>User Setting</t>
+          <t>Conditional Access Policies</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Restrict access to Administrative portal (portal.azure.com) to administrators only</t>
+          <t>Access Controls:  Block Legacy Protocols</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4974,7 +4974,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
+          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4990,12 +4990,12 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>User Setting</t>
+          <t>Conditional Access Policies</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Disable 'LinkedIn account connection'</t>
+          <t>Access Controls: Require devices to be marked as compliant</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5012,7 +5012,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5020,7 +5020,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
+          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Diagnostic Settings</t>
+          <t>Custom Domains</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Enabled and send to Log Analytics workspace with Sentinel</t>
+          <t>Only validated customer domains are registered</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5058,7 +5058,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
+          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>PIM enabled</t>
+          <t>Diagnostic Settings</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Privileged Identity Management enabled</t>
+          <t>Enabled and send to Log Analytics workspace with Sentinel</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5104,7 +5104,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5112,7 +5112,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
+          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5128,18 +5128,18 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>PIM enabled</t>
+          <t>Enterprise Applications</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Implement 'just in time' (JIT) access to further lower the exposure time for privileged accounts (reduce standing access)</t>
+          <t>Consent &amp; Permissions: Allow user consent for apps from verified publishers</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5150,7 +5150,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
+          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5174,18 +5174,18 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Conditional Access Policies</t>
+          <t>Enterprise Applications</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Configure conditional access policies / Access Controls</t>
+          <t xml:space="preserve">Consent &amp; Permissions: Allow group owner consent for selected group owners </t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5196,7 +5196,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5204,7 +5204,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
+          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5220,18 +5220,18 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Conditional Access Policies</t>
+          <t>External Identities</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Conditions: Restricted Locations</t>
+          <t>Identity Providers: Verify external identity providers are known</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5242,7 +5242,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5250,7 +5250,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
+          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Conditional Access Policies</t>
+          <t>External Identities</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Access Controls:  MFA enabled for all users</t>
+          <t>External Collaboration Settings: Guest user access set to 'Guest user access is restricted?'</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5288,7 +5288,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5296,7 +5296,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
+          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5312,18 +5312,18 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Conditional Access Policies</t>
+          <t>External Identities</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Access Controls:  Require MFA for Administrators</t>
+          <t>External Collaboration Settings: Guest invite settings set to  'Only users assigned to specific admin roles'</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5334,7 +5334,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5342,7 +5342,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
+          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5358,12 +5358,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Conditional Access Policies</t>
+          <t>External Identities</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Access Controls:  Require MFA for Azure Management </t>
+          <t xml:space="preserve">External Collaboration Settings: Enable guest self-service sign up via flows set  to 'Disabled' </t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5380,7 +5380,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5388,7 +5388,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
+          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5404,12 +5404,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Conditional Access Policies</t>
+          <t>External Identities</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Access Controls:  Block Legacy Protocols</t>
+          <t>External Collaboration Settings: Collaboration restrictions set to 'Allow invitations to the specified domains'</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5426,7 +5426,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5434,7 +5434,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
+          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5450,18 +5450,18 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Conditional Access Policies</t>
+          <t>External Identities</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Access Controls: Require devices to be marked as compliant</t>
+          <t>Access Reviews: Enabled for all groups</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5472,7 +5472,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
+          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5592,18 +5592,18 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Break Glass Accounts</t>
+          <t>PIM enabled</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>At least two break glass accounts have been created and policy around their use exists</t>
+          <t>Privileged Identity Management enabled</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5614,7 +5614,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5622,7 +5622,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
+          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5633,17 +5633,17 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t>PIM enabled</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Control VM Access leveraging Azure Policy</t>
+          <t>Implement 'just in time' (JIT) access to further lower the exposure time for privileged accounts (reduce standing access)</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5660,7 +5660,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5668,7 +5668,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
+          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5679,23 +5679,23 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t>Password Reset</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Reduce variability in your setup and deployment of VMs by leveraging templates</t>
+          <t>Self-service password reset policy requirement verified compliant.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5706,7 +5706,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
+          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5725,17 +5725,17 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t>Password Reset</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Secure privileged access to deploy VMS by reducing who has access to Resources through Governance</t>
+          <t>Set number of days before users are asked to re-confirm authentication information is not set to zero</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5752,7 +5752,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5760,7 +5760,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
+          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5771,23 +5771,23 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">High Availability </t>
+          <t>Password Reset</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use multiple VMs for your workloads for better availability </t>
+          <t>Set number of methods required to reset password are selected</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5798,7 +5798,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5806,7 +5806,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
+          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5817,23 +5817,23 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">High Availability </t>
+          <t>Privileged administration</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deploy and test a disaster recovery solution </t>
+          <t>Don’t synchronize accounts with the highest privilege access to on-premises resources as you synchronize your enterprise identity systems with cloud directories.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
       <c r="E110" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5844,7 +5844,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
+          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,7 +5852,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
+          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5863,23 +5863,23 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">High Availability </t>
+          <t>Privileged administration</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Availabilty sets</t>
+          <t>Limit the number of Global Administrators to less than 5</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5890,14 +5890,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
+          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5908,23 +5908,23 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">High Availability </t>
+          <t>Privileged administration</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Availability Zones</t>
+          <t>Use groups for Azure AD role assignments and delegate the role assignment</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5935,7 +5935,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5943,7 +5943,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
+          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5954,23 +5954,23 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">High Availability </t>
+          <t>Privileged administration</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Regional fault tolerance </t>
+          <t>Ensure all critical impact admins are managed by enterprise directory to follow organizational policy enforcement.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
       <c r="E113" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5981,7 +5981,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5989,7 +5989,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
+          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6000,17 +6000,17 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Protect against malware</t>
+          <t>Privileged administration</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Install antimalware solutions</t>
+          <t>Configure recurring access reviews to revoke unneeded permissions over time</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6027,7 +6027,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6035,7 +6035,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
+          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6046,23 +6046,23 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Protect against malware</t>
+          <t>Privileged administration</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Integrate antimalware solution with Security Center</t>
+          <t>Ensure critical impact admins use a workstation with elevated security protections and monitoring</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6073,14 +6073,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
+          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6091,17 +6091,17 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Manage VM Updates</t>
+          <t>Tenant</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Keep VMs up to date using Update Management with Azure Automation</t>
+          <t>Establish a single enterprise directory for managing identities of full-time employees and enterprise resources.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6118,14 +6118,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
+          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6136,23 +6136,23 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Manage VM Updates</t>
+          <t>Tenant</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure Windows images for deployment have the most recent level of updates </t>
+          <t>Synchronize your cloud identity with your existing identity systems.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6163,14 +6163,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
+          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
+          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6181,17 +6181,17 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Manage VM Updates</t>
+          <t>Tenant</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Rapidly apply security updates to VMs using Microsoft Defender for Cloud</t>
+          <t>Use cloud identity services to host non-employee accounts such as vendors, partners, and customers, rather than rather than including them in your on-premises directory.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6208,7 +6208,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
+          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>02145901-465d-438e-9309-ccbd979266bc</t>
+          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6227,17 +6227,17 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Encrypt your VHDs</t>
+          <t>Tenant</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Enable encryption on your VMs</t>
+          <t>Disable insecure legacy protocols for internet-facing services.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6254,14 +6254,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
+          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
+          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6272,17 +6272,17 @@
     <row r="120" ht="16.5" customHeight="1" s="13">
       <c r="A120" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>Encrypt your VHDs</t>
+          <t>Tenant</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Add Key Encryption Key (KEK) for added layer of security for encryption </t>
+          <t>Enable single sign-on</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6299,7 +6299,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6307,7 +6307,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
+          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6318,23 +6318,23 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Encrypt your VHDs</t>
+          <t>User Setting</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Take a snapshot of disks before encryption for rollback purposes</t>
+          <t>Disable 'Users can register applications'</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
       <c r="E121" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6345,7 +6345,7 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
         </is>
       </c>
       <c r="I121" s="16" t="n"/>
@@ -6353,7 +6353,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
+          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6364,17 +6364,17 @@
     <row r="122" ht="16.5" customHeight="1" s="13">
       <c r="A122" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restrict direct internet connection </t>
+          <t>User Setting</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure only the central networking group has permissions to networking resources </t>
+          <t>Restrict access to Administrative portal (portal.azure.com) to administrators only</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6391,7 +6391,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
         </is>
       </c>
       <c r="I122" s="16" t="n"/>
@@ -6399,7 +6399,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>5173676a-e466-491e-a835-ad942223e138</t>
+          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6410,17 +6410,17 @@
     <row r="123" ht="16.5" customHeight="1" s="13">
       <c r="A123" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restrict direct internet connection </t>
+          <t>User Setting</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Identity and remediate exposed VMs that allow access from 'ANY' source IP addess</t>
+          <t>Disable 'LinkedIn account connection'</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6437,7 +6437,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
         </is>
       </c>
       <c r="I123" s="16" t="n"/>
@@ -6445,7 +6445,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
+          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6456,17 +6456,17 @@
     <row r="124" ht="16.5" customHeight="1" s="13">
       <c r="A124" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Sentinel</t>
         </is>
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restrict direct internet connection </t>
+          <t>Analytics Rules</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Restrict management ports (RDP, SSH) using Just-in-Time Access</t>
+          <t xml:space="preserve">Customer has enabled Analytics rules and configured Incidents </t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6483,7 +6483,7 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
+          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
         </is>
       </c>
       <c r="I124" s="16" t="n"/>
@@ -6491,7 +6491,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
+          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6502,17 +6502,17 @@
     <row r="125" ht="16.5" customHeight="1" s="13">
       <c r="A125" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Sentinel</t>
         </is>
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restrict direct internet connection </t>
+          <t xml:space="preserve">Architecture </t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Remove internet access and implement jump servers for RDP</t>
+          <t>All tenants contain have Sentinel enabled on at least one Log Analytics workspace</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6529,7 +6529,7 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I125" s="16" t="n"/>
@@ -6537,7 +6537,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
+          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6548,17 +6548,17 @@
     <row r="126" ht="16.5" customHeight="1" s="13">
       <c r="A126" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Sentinel</t>
         </is>
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restrict direct internet connection </t>
+          <t xml:space="preserve">Architecture </t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Remove direct logging into servers using RDP/SSH from internet and implement VPN or express route</t>
+          <t>Customer understands Sentinel architecture</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6575,14 +6575,14 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
+          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
+          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6593,23 +6593,23 @@
     <row r="127" ht="16.5" customHeight="1" s="13">
       <c r="A127" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Sentinel</t>
         </is>
       </c>
       <c r="B127" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restrict direct internet connection </t>
+          <t xml:space="preserve">Architecture </t>
         </is>
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Bastion as your RDP/SSH broker for added security and reduction in footprint</t>
+          <t>Customer knows how to monitor Incidents across multiple Sentinel instances</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
       <c r="E127" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6620,14 +6620,14 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
+          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6643,12 +6643,12 @@
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Architecture </t>
+          <t>Data Connectors</t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>All tenants contain have Sentinel enabled on at least one Log Analytics workspace</t>
+          <t>Azure Active Directory in configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6665,14 +6665,14 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
+          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6688,12 +6688,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Architecture </t>
+          <t>Data Connectors</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Customer understands Sentinel architecture</t>
+          <t>Azure Active Directory Identity Protection is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6710,14 +6710,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
+          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6733,18 +6733,18 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Architecture </t>
+          <t>Data Connectors</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Customer knows how to monitor Incidents across multiple Sentinel instances</t>
+          <t>Azure Activity is configured is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6755,14 +6755,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
+          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6778,18 +6778,18 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Data Connectors</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>No Incidents open more than 24 hours</t>
+          <t>Microsoft Defender for Cloud is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
       <c r="E131" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -6800,14 +6800,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
+          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6823,18 +6823,18 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>News &amp; Guides</t>
+          <t>Data Connectors</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Customer have been shown the News &amp; Guides tab</t>
+          <t>Azure Firewall is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
       <c r="E132" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6845,14 +6845,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
+          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -6868,18 +6868,18 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">UEBA </t>
+          <t>Data Connectors</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>UEBA Configured (Sentinel/Settings/Settings/Configure UEBA)</t>
+          <t>Windows Firewall is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
       <c r="E133" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6890,14 +6890,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
+          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory in configured and 'Last Log Received' shows today</t>
+          <t>Security Events is configured with AMA and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -6935,14 +6935,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
+          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory Identity Protection is configured and 'Last Log Received' shows today</t>
+          <t>Security Events - verify Azure computers are connected and sending data to the workspace</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -6980,14 +6980,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
+          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Azure Activity is configured is configured and 'Last Log Received' shows today</t>
+          <t>Security Events - verify non-Azure computers are connected and sending data to the workspace</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7025,14 +7025,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
+          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud is configured and 'Last Log Received' shows today</t>
+          <t>Connector for AWS</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7070,14 +7070,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
+          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall is configured and 'Last Log Received' shows today</t>
+          <t>Connector for GCP</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7115,14 +7115,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
+          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7138,18 +7138,18 @@
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>Data Connectors</t>
+          <t>News &amp; Guides</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Windows Firewall is configured and 'Last Log Received' shows today</t>
+          <t>Customer have been shown the News &amp; Guides tab</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
       <c r="E139" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7160,14 +7160,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
+          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
+          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7183,18 +7183,18 @@
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Data Connectors</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Security Events is configured with AMA and 'Last Log Received' shows today</t>
+          <t>No Incidents open more than 24 hours</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7205,14 +7205,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
+          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
+          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7228,18 +7228,18 @@
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Data Connectors</t>
+          <t>Settings</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Security Events - verify Azure computers are connected and sending data to the workspace</t>
+          <t>Customer does not have a daily cap enabled</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
       <c r="E141" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7250,14 +7250,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
+          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7273,18 +7273,18 @@
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>Data Connectors</t>
+          <t xml:space="preserve">UEBA </t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Security Events - verify non-Azure computers are connected and sending data to the workspace</t>
+          <t>UEBA Configured (Sentinel/Settings/Settings/Configure UEBA)</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7295,14 +7295,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
+          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7313,17 +7313,17 @@
     <row r="143" ht="16.5" customHeight="1" s="13">
       <c r="A143" s="22" t="inlineStr">
         <is>
-          <t>Sentinel</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B143" s="22" t="inlineStr">
         <is>
-          <t>Data Connectors</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Connector for AWS</t>
+          <t>Control VM Access leveraging Azure Policy</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7340,14 +7340,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
+          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7358,23 +7358,23 @@
     <row r="144" ht="16.5" customHeight="1" s="13">
       <c r="A144" s="22" t="inlineStr">
         <is>
-          <t>Sentinel</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B144" s="22" t="inlineStr">
         <is>
-          <t>Data Connectors</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Connector for GCP</t>
+          <t>Reduce variability in your setup and deployment of VMs by leveraging templates</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
       <c r="E144" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7385,14 +7385,14 @@
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
+          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7403,23 +7403,23 @@
     <row r="145" ht="16.5" customHeight="1" s="13">
       <c r="A145" s="22" t="inlineStr">
         <is>
-          <t>Sentinel</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>Analytics Rules</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Customer has enabled Analytics rules and configured Incidents </t>
+          <t>Secure privileged access to deploy VMS by reducing who has access to Resources through Governance</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
       <c r="E145" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7430,14 +7430,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
+          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
+          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7448,23 +7448,23 @@
     <row r="146" ht="16.5" customHeight="1" s="13">
       <c r="A146" s="22" t="inlineStr">
         <is>
-          <t>Sentinel</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>Settings</t>
+          <t>Encrypt your VHDs</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Customer does not have a daily cap enabled</t>
+          <t>Enable encryption on your VMs</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
       <c r="E146" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7475,14 +7475,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
+          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7493,17 +7493,17 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>Configuration</t>
+          <t>Encrypt your VHDs</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium deployed</t>
+          <t xml:space="preserve">Add Key Encryption Key (KEK) for added layer of security for encryption </t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7520,14 +7520,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
+          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7538,23 +7538,23 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>Configuration</t>
+          <t>Encrypt your VHDs</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Quad zero/force tunning enabled through Azure Firewall</t>
+          <t>Take a snapshot of disks before encryption for rollback purposes</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7565,14 +7565,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
+          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7583,17 +7583,17 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t xml:space="preserve">High Availability </t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>RBAC set to enable only authorized users</t>
+          <t xml:space="preserve">Use multiple VMs for your workloads for better availability </t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7610,14 +7610,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
+          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7628,17 +7628,17 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Diagnostic Settings</t>
+          <t xml:space="preserve">High Availability </t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnostics enabled and sending metrics to a Log Analytics workspace </t>
+          <t xml:space="preserve">Deploy and test a disaster recovery solution </t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7655,14 +7655,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
+          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7673,23 +7673,23 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t xml:space="preserve">High Availability </t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Hubs and virtual networks are protected or connected through Firewall Premium</t>
+          <t>Availabilty sets</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7700,14 +7700,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
+          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7718,23 +7718,23 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t xml:space="preserve">High Availability </t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Policy: Access controls are configured (RBAC)</t>
+          <t>Availability Zones</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7745,14 +7745,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
+          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7763,23 +7763,23 @@
     <row r="153" ht="16.5" customHeight="1" s="13">
       <c r="A153" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t xml:space="preserve">High Availability </t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Policy: Parent policy is configured </t>
+          <t xml:space="preserve">Regional fault tolerance </t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7790,14 +7790,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
+          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7808,17 +7808,17 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>Manage VM Updates</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Policy: Rule collections are defined</t>
+          <t>Keep VMs up to date using Update Management with Azure Automation</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -7835,14 +7835,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
+          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -7853,23 +7853,23 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>Manage VM Updates</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Policy: DNAT policies are defined</t>
+          <t xml:space="preserve">Ensure Windows images for deployment have the most recent level of updates </t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7880,14 +7880,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
+          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -7898,17 +7898,17 @@
     <row r="156" ht="16.5" customHeight="1" s="13">
       <c r="A156" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B156" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>Manage VM Updates</t>
         </is>
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Policy: Network rules are defined</t>
+          <t>Rapidly apply security updates to VMs using Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -7925,14 +7925,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
+          <t>02145901-465d-438e-9309-ccbd979266bc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -7943,17 +7943,17 @@
     <row r="157" ht="16.5" customHeight="1" s="13">
       <c r="A157" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B157" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>Protect against malware</t>
         </is>
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Policy: Application rules are defined</t>
+          <t>Install antimalware solutions</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -7970,14 +7970,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/features</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
+          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -7988,23 +7988,23 @@
     <row r="158" ht="16.5" customHeight="1" s="13">
       <c r="A158" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B158" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>Protect against malware</t>
         </is>
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>DNS: Feature understood and applied or not applied</t>
+          <t>Integrate antimalware solution with Security Center</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8015,14 +8015,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
+          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8033,17 +8033,17 @@
     <row r="159" ht="16.5" customHeight="1" s="13">
       <c r="A159" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B159" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t xml:space="preserve">Restrict direct internet connection </t>
         </is>
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Threat Intelligence: Set to Alert &amp; Deny</t>
+          <t xml:space="preserve">Ensure only the central networking group has permissions to networking resources </t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8060,14 +8060,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
+          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
+          <t>5173676a-e466-491e-a835-ad942223e138</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8078,17 +8078,17 @@
     <row r="160" ht="16.5" customHeight="1" s="13">
       <c r="A160" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B160" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t xml:space="preserve">Restrict direct internet connection </t>
         </is>
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Threat Intelligence: Allowed list (justify if they are being used - ie performance)</t>
+          <t>Identity and remediate exposed VMs that allow access from 'ANY' source IP addess</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8105,14 +8105,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
+          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8123,17 +8123,17 @@
     <row r="161" ht="16.5" customHeight="1" s="13">
       <c r="A161" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B161" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t xml:space="preserve">Restrict direct internet connection </t>
         </is>
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>TLS enabled</t>
+          <t>Restrict management ports (RDP, SSH) using Just-in-Time Access</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8150,14 +8150,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
+          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8168,17 +8168,17 @@
     <row r="162" ht="16.5" customHeight="1" s="13">
       <c r="A162" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t xml:space="preserve">Restrict direct internet connection </t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>IDPS enabled</t>
+          <t>Remove internet access and implement jump servers for RDP</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8195,14 +8195,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
+          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8213,17 +8213,17 @@
     <row r="163" ht="16.5" customHeight="1" s="13">
       <c r="A163" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t xml:space="preserve">Restrict direct internet connection </t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SNAT: Configured </t>
+          <t>Remove direct logging into servers using RDP/SSH from internet and implement VPN or express route</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8240,14 +8240,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
+          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
+          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8258,23 +8258,23 @@
     <row r="164" ht="16.5" customHeight="1" s="13">
       <c r="A164" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>DDOS Protection</t>
+          <t xml:space="preserve">Restrict direct internet connection </t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Enabled for Firewall public  IP's</t>
+          <t>Leverage Azure Bastion as your RDP/SSH broker for added security and reduction in footprint</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8285,14 +8285,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8330,14 +8330,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8375,14 +8375,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8420,14 +8420,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8465,14 +8465,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8510,14 +8510,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8562,7 +8562,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8600,14 +8600,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8616,360 +8616,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10527,7 +11247,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10611,7 +11331,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10667,26 +11387,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F165" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F165" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/security_checklist.en.xlsx
+++ b/spreadsheet/security_checklist.en.xlsx
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Security Center/Defender enable in all subscriptions</t>
+          <t>RBAC set to enable only authorized users</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1122,7 +1122,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>54174158-33fb-43ae-9c2d-e743165c3acb</t>
+          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Configuration</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Security Center/Defender enabled on all Log Analytics workspaces</t>
+          <t>Azure Firewall Premium deployed</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1168,7 +1168,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>349f0364-d28d-442e-abbb-c868255abc91</t>
+          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Configuration</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Data collection set to 'Common'</t>
+          <t>Quad zero/force tunning enabled through Azure Firewall</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1214,7 +1214,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
+          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>64e9a19a-e28c-484c-93b6-b7818ca0e6c4</t>
+          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,23 +1233,23 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>DDOS Protection</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Defender for Cloud enhanced security features are all enabled</t>
+          <t>Enabled for Firewall public  IP's</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>2149d414-a923-4c35-94d1-1029bd6aaf11</t>
+          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1279,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Diagnostic Settings</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Auto-provisioning enabled as per company policy (policy must exist)</t>
+          <t xml:space="preserve">Diagnostics enabled and sending metrics to a Log Analytics workspace </t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1306,7 +1306,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-enable-data-collection</t>
+          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>e6b84ee5-ef43-4d29-a248-1718d5d1f5f7</t>
+          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1325,23 +1325,23 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Email notifications enabled as per company policy (policy must exist)</t>
+          <t>Hubs and virtual networks are protected or connected through Firewall Premium</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-provide-security-contact-details</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>25759e35-680e-4782-9ac9-32213d027ff4</t>
+          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1371,23 +1371,23 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enable integrations options are selected </t>
+          <t>Policy: Access controls are configured (RBAC)</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1398,7 +1398,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-wdatp?WT.mc_id=Portal-Microsoft_Azure_Security_CloudNativeCompute&amp;tabs=windows</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1406,7 +1406,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>12f70993-0631-4583-9ee7-9d6c6d363206</t>
+          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1417,23 +1417,23 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>CI/CD integration is configured</t>
+          <t xml:space="preserve">Policy: Parent policy is configured </t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1444,7 +1444,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/defender-for-container-registries-cicd</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>5b7abae4-4aad-45e8-a79e-2e86667313c5</t>
+          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1463,17 +1463,17 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Continuous export 'Event Hub' is enabled if using 3rd party SIEM</t>
+          <t>Policy: Rule collections are defined</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>05675c5e-985b-4859-a774-f7e371623b87</t>
+          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1509,23 +1509,23 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Continuous export 'Log Analytics Workspace' is enabled if not using Azure Sentinel</t>
+          <t>Policy: DNAT policies are defined</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-349f-4036-9d28-d42e8bbbc868</t>
+          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1555,17 +1555,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Cloud connector enabled for AWS</t>
+          <t>Policy: Network rules are defined</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1582,7 +1582,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-aws?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>255abc91-64e9-4a19-ae28-c84c43b6b781</t>
+          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1601,17 +1601,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Cloud connector enabled for GCP</t>
+          <t>Policy: Application rules are defined</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1628,7 +1628,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-gcp</t>
+          <t>https://docs.microsoft.com/azure/firewall/features</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>8ca0e6c4-2149-4d41-9a92-3c3574d11029</t>
+          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1647,23 +1647,23 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Pricing &amp; Settings</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>If using Azure AD Application proxy, consider integrating with Microsoft Defender for Cloud Apps to monitor application access in real-time and apply advanced security controls.</t>
+          <t>DNS: Feature understood and applied or not applied</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
+          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
+          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1693,23 +1693,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Recommendations</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>All recommendations remediated or disabled if not required.</t>
+          <t>Threat Intelligence: Set to Alert &amp; Deny</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1720,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
+          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,24 +1739,20 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Recommendations</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Security Score&gt;70%</t>
-        </is>
-      </c>
-      <c r="D22" s="22" t="inlineStr">
-        <is>
-          <t>Microsoft minimum target for all customers is 70%</t>
-        </is>
-      </c>
+          <t>Threat Intelligence: Allowed list (justify if they are being used - ie performance)</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -1770,7 +1766,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1778,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
+          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1789,23 +1785,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Secuity Alerts</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Security Alerts contain only those generated in the past 24 hours (remediate or disable older security alerts)</t>
+          <t>TLS enabled</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1816,7 +1812,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1824,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
+          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1835,23 +1831,23 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Workbooks</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>If continuous export is enabled, default workbooks published to custom security dashboard</t>
+          <t>IDPS enabled</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1862,7 +1858,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
+          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1881,23 +1877,23 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Community</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Customer is aware of the value of the 'Community' page and has a regular cadence set up to review</t>
+          <t xml:space="preserve">SNAT: Configured </t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1908,7 +1904,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
+          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1916,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
+          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1927,24 +1923,20 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Secure Score</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>All subscriptions protected by Security Center are shown (no subscription filter set)</t>
-        </is>
-      </c>
-      <c r="D26" s="22" t="inlineStr">
-        <is>
-          <t>Customer Operational best practice - Transparency</t>
-        </is>
-      </c>
+          <t>AppGW RBAC is used to restrict access to the network security team</t>
+        </is>
+      </c>
+      <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -1958,7 +1950,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1966,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
+          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1977,17 +1969,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Regulatory Compliance</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Compliance controls are green for any required compliance requirements</t>
+          <t xml:space="preserve">AppGW All external facing web services are behind Application Gateways with WAF enabled </t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2004,14 +1996,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
+          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2022,24 +2014,20 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>High severity VM vulnerabilities is zero (empty)</t>
-        </is>
-      </c>
-      <c r="D28" s="22" t="inlineStr">
-        <is>
-          <t>Customer Operational best practice - verify</t>
-        </is>
-      </c>
+          <t xml:space="preserve">AppGW All internal facing web services are behind Application Gateways with WAF enabled </t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -2053,14 +2041,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
+          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2071,23 +2059,23 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Hubs are protected by an Azure Firewall</t>
+          <t>AppGW - External facing has TLS/SSL enabled and redirects all traffic to 443 (no port 80 traffic)</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2098,14 +2086,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
+          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2116,27 +2104,23 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>Connectivity</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Virtual Networks are protected by a Firewall</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="inlineStr">
-        <is>
-          <t>Customer Operational best practice - verify</t>
-        </is>
-      </c>
+          <t>Use ExpressRoute or VPN to access Azure resources from on-premises environments</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2147,14 +2131,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
+          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2165,23 +2149,23 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>DDOS Protection</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>DDoS Standard enabled</t>
+          <t>Enabled for Firewall public  IP's  (all public IPs)</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2192,14 +2176,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
+          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2210,17 +2194,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Defender For Cloud</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Coverage</t>
+          <t>FrontDoor</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Verify that all subscriptions are covered (see pricing and settings to modify)</t>
+          <t>Front Door RBAC is used to restrict access to the network security team</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2237,7 +2221,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2245,7 +2229,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
+          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2261,12 +2245,12 @@
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Public IPs</t>
+          <t>FrontDoor</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">VM's with public IPs should be protected by NSG </t>
+          <t>Front Door is associated with a WAF policy</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2283,7 +2267,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2291,7 +2275,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
+          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2307,19 +2291,15 @@
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Public IPs</t>
+          <t>FrontDoor</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>VMs with public IPs are moved  behind Azure Firewall Premium</t>
-        </is>
-      </c>
-      <c r="D34" s="22" t="inlineStr">
-        <is>
-          <t>Customer operational best practice -  verify</t>
-        </is>
-      </c>
+          <t>Front Door TLS/SSL policy is configured</t>
+        </is>
+      </c>
+      <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -2333,7 +2313,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2341,7 +2321,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
+          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2357,19 +2337,15 @@
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Public IPs</t>
+          <t>FrontDoor</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>VM's that don't need public IPs do not have public IPs (i.e. internal RDP only)</t>
-        </is>
-      </c>
-      <c r="D35" s="22" t="inlineStr">
-        <is>
-          <t>Customer operational best practice - verify</t>
-        </is>
-      </c>
+          <t>Front Door redirect port 80 to port 443 is configured (listeners)</t>
+        </is>
+      </c>
+      <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -2383,7 +2359,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2391,7 +2367,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
+          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2407,18 +2383,18 @@
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>FrontDoor</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>NSG RBAC is used to restrict access to network security team</t>
+          <t>Front Door diagnostics logs send ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog to Sentinel LAW</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2429,7 +2405,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2437,7 +2413,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
+          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2458,17 +2434,13 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>NSG Inbound security rules do not contain a * (wildcard) in Source field</t>
-        </is>
-      </c>
-      <c r="D37" s="22" t="inlineStr">
-        <is>
-          <t>Customer operational best practice - verify</t>
-        </is>
-      </c>
+          <t>NSG RBAC is used to restrict access to network security team</t>
+        </is>
+      </c>
+      <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2487,7 +2459,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
+          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2508,7 +2480,7 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>NSG outbound security rules are used to control traffic to specific IP addresses for traffic not routed through a Firewall</t>
+          <t>NSG Inbound security rules do not contain a * (wildcard) in Source field</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
@@ -2518,7 +2490,7 @@
       </c>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2537,7 +2509,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
+          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2558,7 +2530,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>NSG do not have Source as a * (wildcard) in place.</t>
+          <t>NSG outbound security rules are used to control traffic to specific IP addresses for traffic not routed through a Firewall</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
@@ -2568,7 +2540,7 @@
       </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2587,7 +2559,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
+          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2608,13 +2580,17 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>NSG Diagnostics send NetworkSecurityGroupEvent and NetworkSecurityGroupRuleCounter traffic to Sentinel LAW</t>
-        </is>
-      </c>
-      <c r="D40" s="22" t="n"/>
+          <t>NSG do not have Source as a * (wildcard) in place.</t>
+        </is>
+      </c>
+      <c r="D40" s="22" t="inlineStr">
+        <is>
+          <t>Customer operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2625,7 +2601,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2633,7 +2609,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
+          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2649,12 +2625,12 @@
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>UDR RBAC is used to restrict access to the network security team</t>
+          <t>NSG Diagnostics send NetworkSecurityGroupEvent and NetworkSecurityGroupRuleCounter traffic to Sentinel LAW</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2671,7 +2647,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2679,7 +2655,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
+          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2695,12 +2671,12 @@
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>Public IPs</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>If Zero Trust, then UDR's are used to send all traffic to the Azure Firewall Premium</t>
+          <t xml:space="preserve">VM's with public IPs should be protected by NSG </t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2717,7 +2693,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2725,7 +2701,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
+          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2741,22 +2717,22 @@
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>Public IPs</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>UDR's that do not send all traffic to AzureFirewallPremium are known and documented.</t>
+          <t>VMs with public IPs are moved  behind Azure Firewall Premium</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>Customer operational best practice - verify</t>
+          <t>Customer operational best practice -  verify</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2767,7 +2743,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2775,7 +2751,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
+          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2791,15 +2767,19 @@
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Virtual Networks</t>
+          <t>Public IPs</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Customer is familiar with Azure networking defaults / SDN default routing in Azure</t>
-        </is>
-      </c>
-      <c r="D44" s="22" t="n"/>
+          <t>VM's that don't need public IPs do not have public IPs (i.e. internal RDP only)</t>
+        </is>
+      </c>
+      <c r="D44" s="22" t="inlineStr">
+        <is>
+          <t>Customer operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -2813,7 +2793,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2821,7 +2801,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
+          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2837,19 +2817,15 @@
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Virtual Networks</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>VNet RBAC is used to restrict access to the network security team</t>
-        </is>
-      </c>
-      <c r="D45" s="22" t="inlineStr">
-        <is>
-          <t>Customer operational best practice - verify</t>
-        </is>
-      </c>
+          <t>UDR RBAC is used to restrict access to the network security team</t>
+        </is>
+      </c>
+      <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2863,14 +2839,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
+          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2886,12 +2862,12 @@
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Virtual Networks</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">VNet Security recommendations are remediated and there are no 'At-risk' VNets </t>
+          <t>If Zero Trust, then UDR's are used to send all traffic to the Azure Firewall Premium</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2908,7 +2884,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2916,7 +2892,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
+          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2932,18 +2908,22 @@
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Virtual Networks</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>VNet Peering connections are understood and expected traffic flows are documented</t>
-        </is>
-      </c>
-      <c r="D47" s="22" t="n"/>
+          <t>UDR's that do not send all traffic to AzureFirewallPremium are known and documented.</t>
+        </is>
+      </c>
+      <c r="D47" s="22" t="inlineStr">
+        <is>
+          <t>Customer operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2954,7 +2934,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2962,7 +2942,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
+          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2983,7 +2963,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>VNet Service Endpoints are in use, no legacy Public Service Endpoints exist</t>
+          <t>Customer is familiar with Azure networking defaults / SDN default routing in Azure</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3000,14 +2980,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
+          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3028,13 +3008,17 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>VNet Private Endpoints are in use to allow access from on-premises environments, no legacy public endpoints exist</t>
-        </is>
-      </c>
-      <c r="D49" s="22" t="n"/>
+          <t>VNet RBAC is used to restrict access to the network security team</t>
+        </is>
+      </c>
+      <c r="D49" s="22" t="inlineStr">
+        <is>
+          <t>Customer operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3045,14 +3029,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
+          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
+          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3073,7 +3057,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>VNet Monitoring enabled</t>
+          <t xml:space="preserve">VNet Security recommendations are remediated and there are no 'At-risk' VNets </t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3090,7 +3074,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3098,7 +3082,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
+          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3119,7 +3103,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Secure traffic between pods using network policies in Azure Kubernetes Service (AKS)</t>
+          <t>VNet Peering connections are understood and expected traffic flows are documented</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3136,7 +3120,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3144,7 +3128,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>2055b29b-ade4-4aad-8e8c-39ec94666731</t>
+          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3165,7 +3149,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>VNet NVA (appliances) customer follows published architecture pattern</t>
+          <t>VNet Service Endpoints are in use, no legacy Public Service Endpoints exist</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3182,7 +3166,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3190,7 +3174,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
+          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3211,7 +3195,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>VNet Diagnostic settings are enabled and sending VMProtectionAlerts to the Azure Sentinel LAW</t>
+          <t>VNet Private Endpoints are in use to allow access from on-premises environments, no legacy public endpoints exist</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3228,14 +3212,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
+          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3251,12 +3235,12 @@
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Virtual Networks</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Use ExpressRoute or VPN to access Azure resources from on-premises environments</t>
+          <t>VNet Monitoring enabled</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3273,7 +3257,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3281,7 +3265,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
+          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3297,12 +3281,12 @@
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Virtual Networks</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>VWAN RBAC is used to restrict access to the network security team</t>
+          <t>Secure traffic between pods using network policies in Azure Kubernetes Service (AKS)</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3319,14 +3303,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
+          <t>2055b29b-ade4-4aad-8e8c-39ec94666731</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3342,12 +3326,12 @@
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Virtual Networks</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>VWAN Customer is using Secure Hub or external Firewall to route and monitor traffic.</t>
+          <t>VNet NVA (appliances) customer follows published architecture pattern</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3364,14 +3348,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
+          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3387,12 +3371,12 @@
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Application Gateway</t>
+          <t>Virtual Networks</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>AppGW RBAC is used to restrict access to the network security team</t>
+          <t>VNet Diagnostic settings are enabled and sending VMProtectionAlerts to the Azure Sentinel LAW</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3409,14 +3393,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
+          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3432,12 +3416,12 @@
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Application Gateway</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW All external facing web services are behing Application Gateways with WAF enabled </t>
+          <t>VWAN RBAC is used to restrict access to the network security team</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3454,14 +3438,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
+          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3477,12 +3461,12 @@
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Application Gateway</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW All internal facing web services are behing Application Gateways with WAF enabled </t>
+          <t>VWAN Customer is using Secure Hub or external Firewall to route and monitor traffic.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3499,14 +3483,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
+          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3517,20 +3501,24 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Application Gateway</t>
+          <t>Azure Defender</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>AppGW - External facing has TLS/SSL enabled and redirects all traffic to 443 (no port 80 traffic)</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="n"/>
+          <t>High severity VM vulnerabilities is zero (empty)</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="inlineStr">
+        <is>
+          <t>Customer Operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E60" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -3544,14 +3532,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
+          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3562,23 +3550,23 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Community</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Front Door RBAC is used to restrict access to the network security team</t>
+          <t>Customer is aware of the value of the 'Community' page and has a regular cadence set up to review</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3589,14 +3577,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
+          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3607,17 +3595,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Coverage</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Front Door is associated with a WAF policy</t>
+          <t>Verify that all subscriptions are covered (see pricing and settings to modify)</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3634,14 +3622,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
+          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3652,23 +3640,23 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Front Door TLS/SSL policy is configured</t>
+          <t>Hubs are protected by an Azure Firewall</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3679,7 +3667,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3687,7 +3675,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
+          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3698,23 +3686,27 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Front Door redirect port 80 to port 443 is configured (listeners)</t>
-        </is>
-      </c>
-      <c r="D64" s="22" t="n"/>
+          <t>Virtual Networks are protected by a Firewall</t>
+        </is>
+      </c>
+      <c r="D64" s="22" t="inlineStr">
+        <is>
+          <t>Customer Operational best practice - verify</t>
+        </is>
+      </c>
       <c r="E64" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3725,7 +3717,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3733,7 +3725,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
+          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3744,23 +3736,23 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Firewall Manager</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Front Door diagnostics logs send ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog to Sentinel LAW</t>
+          <t>DDoS Standard enabled</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3771,7 +3763,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
+          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3779,7 +3771,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
+          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3790,17 +3782,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>DDOS Protection</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Enabled for Firewall public  IP's  (all public IPs)</t>
+          <t>Security Center/Defender enable in all subscriptions</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3817,14 +3809,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
+          <t>54174158-33fb-43ae-9c2d-e743165c3acb</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3835,17 +3827,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Tenant</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Establish a single enterprise directory for managing identities of full-time employees and enterprise resources.</t>
+          <t>Security Center/Defender enabled on all Log Analytics workspaces</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3862,7 +3854,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
+          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3870,7 +3862,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
+          <t>349f0364-d28d-442e-abbb-c868255abc91</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3881,23 +3873,23 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Tenant</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Synchronize your cloud identity with your existing identity systems.</t>
+          <t>Data collection set to 'Common'</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3908,7 +3900,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3916,7 +3908,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
+          <t>64e9a19a-e28c-484c-93b6-b7818ca0e6c4</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3927,17 +3919,17 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>Tenant</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Use cloud identity services to host non-employee accounts such as vendors, partners, and customers, rather than rather than including them in your on-premises directory.</t>
+          <t>Defender for Cloud enhanced security features are all enabled</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3954,7 +3946,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
+          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3962,7 +3954,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
+          <t>2149d414-a923-4c35-94d1-1029bd6aaf11</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3973,23 +3965,23 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>Tenant</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Disable insecure legacy protocols for internet-facing services.</t>
+          <t>Auto-provisioning enabled as per company policy (policy must exist)</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4000,7 +3992,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-enable-data-collection</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4008,7 +4000,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
+          <t>e6b84ee5-ef43-4d29-a248-1718d5d1f5f7</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4019,23 +4011,23 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Tenant</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Enable single sign-on</t>
+          <t>Email notifications enabled as per company policy (policy must exist)</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4046,7 +4038,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-provide-security-contact-details</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4054,7 +4046,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
+          <t>25759e35-680e-4782-9ac9-32213d027ff4</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4065,23 +4057,23 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Privileged administration</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Don’t synchronize accounts with the highest privilege access to on-premises resources as you synchronize your enterprise identity systems with cloud directories.</t>
+          <t xml:space="preserve">Enable integrations options are selected </t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4092,7 +4084,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-wdatp?WT.mc_id=Portal-Microsoft_Azure_Security_CloudNativeCompute&amp;tabs=windows</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4100,7 +4092,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
+          <t>12f70993-0631-4583-9ee7-9d6c6d363206</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4111,23 +4103,23 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Privileged administration</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Global Administrators to less than 5</t>
+          <t>CI/CD integration is configured</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4138,7 +4130,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
+          <t>https://docs.microsoft.com/azure/security-center/defender-for-container-registries-cicd</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4146,7 +4138,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
+          <t>5b7abae4-4aad-45e8-a79e-2e86667313c5</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4157,17 +4149,17 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Privileged administration</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Use groups for Azure AD role assignments and delegate the role assignment</t>
+          <t>Continuous export 'Event Hub' is enabled if using 3rd party SIEM</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4184,7 +4176,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
+          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4192,7 +4184,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
+          <t>05675c5e-985b-4859-a774-f7e371623b87</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4203,23 +4195,23 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Privileged administration</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Ensure all critical impact admins are managed by enterprise directory to follow organizational policy enforcement.</t>
+          <t>Continuous export 'Log Analytics Workspace' is enabled if not using Azure Sentinel</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4230,7 +4222,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
+          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4238,7 +4230,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
+          <t>5a917e1f-349f-4036-9d28-d42e8bbbc868</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4249,17 +4241,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Privileged administration</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Configure recurring access reviews to revoke unneeded permissions over time</t>
+          <t>Cloud connector enabled for AWS</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4276,7 +4268,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
+          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-aws?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4284,7 +4276,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
+          <t>255abc91-64e9-4a19-ae28-c84c43b6b781</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4295,23 +4287,23 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>Privileged administration</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Ensure critical impact admins use a workstation with elevated security protections and monitoring</t>
+          <t>Cloud connector enabled for GCP</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4322,7 +4314,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
+          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-gcp</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4330,7 +4322,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
+          <t>8ca0e6c4-2149-4d41-9a92-3c3574d11029</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4341,23 +4333,23 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>External Identities</t>
+          <t>Pricing &amp; Settings</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Identity Providers: Verify external identity providers are known</t>
+          <t>If using Azure AD Application proxy, consider integrating with Microsoft Defender for Cloud Apps to monitor application access in real-time and apply advanced security controls.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4368,7 +4360,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
+          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4376,7 +4368,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
+          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4387,23 +4379,23 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>External Identities</t>
+          <t>Recommendations</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>External Collaboration Settings: Guest user access set to 'Guest user access is restricted?'</t>
+          <t>All recommendations remediated or disabled if not required.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4414,7 +4406,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4422,7 +4414,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
+          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4433,20 +4425,24 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>External Identities</t>
+          <t>Recommendations</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>External Collaboration Settings: Guest invite settings set to  'Only users assigned to specific admin roles'</t>
-        </is>
-      </c>
-      <c r="D80" s="22" t="n"/>
+          <t>Security Score&gt;70%</t>
+        </is>
+      </c>
+      <c r="D80" s="22" t="inlineStr">
+        <is>
+          <t>Microsoft minimum target for all customers is 70%</t>
+        </is>
+      </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -4460,7 +4456,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4468,7 +4464,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
+          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4479,17 +4475,17 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>External Identities</t>
+          <t>Regulatory Compliance</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">External Collaboration Settings: Enable guest self-service sign up via flows set  to 'Disabled' </t>
+          <t>Compliance controls are green for any required compliance requirements</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4506,7 +4502,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4514,7 +4510,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
+          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4525,20 +4521,24 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>External Identities</t>
+          <t>Secure Score</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>External Collaboration Settings: Collaboration restrictions set to 'Allow invitations to the specified domains'</t>
-        </is>
-      </c>
-      <c r="D82" s="22" t="n"/>
+          <t>All subscriptions protected by Security Center are shown (no subscription filter set)</t>
+        </is>
+      </c>
+      <c r="D82" s="22" t="inlineStr">
+        <is>
+          <t>Customer Operational best practice - Transparency</t>
+        </is>
+      </c>
       <c r="E82" s="22" t="inlineStr">
         <is>
           <t>High</t>
@@ -4552,7 +4552,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4560,7 +4560,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
+          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4571,17 +4571,17 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>External Identities</t>
+          <t>Security Alerts</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Access Reviews: Enabled for all groups</t>
+          <t>Security Alerts contain only those generated in the past 24 hours (remediate or disable older security alerts)</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4598,7 +4598,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4606,7 +4606,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
+          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4617,17 +4617,17 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Defender For Cloud</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Enterprise Applications</t>
+          <t>Workbooks</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Consent &amp; Permissions: Allow user consent for apps from verified publishers</t>
+          <t>If continuous export is enabled, default workbooks published to custom security dashboard</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4644,7 +4644,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
+          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4652,7 +4652,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
+          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4668,12 +4668,12 @@
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Enterprise Applications</t>
+          <t>Break Glass Accounts</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consent &amp; Permissions: Allow group owner consent for selected group owners </t>
+          <t>At least two break glass accounts have been created and policy around their use exists</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4690,7 +4690,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4698,7 +4698,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
+          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4714,12 +4714,12 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Custom Domains</t>
+          <t>Conditional Access Policies</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Only validated customer domains are registered</t>
+          <t>Configure conditional access policies / Access Controls</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4736,7 +4736,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4744,7 +4744,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
+          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4760,18 +4760,18 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Password Reset</t>
+          <t>Conditional Access Policies</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Self-service password reset policy requirement verified compliant.</t>
+          <t>Conditions: Restricted Locations</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4782,7 +4782,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4790,7 +4790,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
+          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4806,18 +4806,18 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Password Reset</t>
+          <t>Conditional Access Policies</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Set number of days before users are asked to re-confirm authentication information is not set to zero</t>
+          <t>Access Controls:  MFA enabled for all users</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4828,7 +4828,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4836,7 +4836,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
+          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4852,18 +4852,18 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Password Reset</t>
+          <t>Conditional Access Policies</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Set number of methods required to reset password are selected</t>
+          <t>Access Controls:  Require MFA for Administrators</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4874,7 +4874,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -4882,7 +4882,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
+          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>User Setting</t>
+          <t>Conditional Access Policies</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Disable 'Users can register applications'</t>
+          <t xml:space="preserve">Access Controls:  Require MFA for Azure Management </t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4920,7 +4920,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4928,7 +4928,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
+          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4944,12 +4944,12 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>User Setting</t>
+          <t>Conditional Access Policies</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Restrict access to Administrative portal (portal.azure.com) to administrators only</t>
+          <t>Access Controls:  Block Legacy Protocols</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4974,7 +4974,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
+          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4990,12 +4990,12 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>User Setting</t>
+          <t>Conditional Access Policies</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Disable 'LinkedIn account connection'</t>
+          <t>Access Controls: Require devices to be marked as compliant</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5012,7 +5012,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5020,7 +5020,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
+          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Diagnostic Settings</t>
+          <t>Custom Domains</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Enabled and send to Log Analytics workspace with Sentinel</t>
+          <t>Only validated customer domains are registered</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5058,7 +5058,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
+          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>PIM enabled</t>
+          <t>Diagnostic Settings</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Privileged Identity Management enabled</t>
+          <t>Enabled and send to Log Analytics workspace with Sentinel</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5104,7 +5104,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5112,7 +5112,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
+          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5128,18 +5128,18 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>PIM enabled</t>
+          <t>Enterprise Applications</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Implement 'just in time' (JIT) access to further lower the exposure time for privileged accounts (reduce standing access)</t>
+          <t>Consent &amp; Permissions: Allow user consent for apps from verified publishers</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5150,7 +5150,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
+          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5174,18 +5174,18 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Conditional Access Policies</t>
+          <t>Enterprise Applications</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Configure conditional access policies / Access Controls</t>
+          <t xml:space="preserve">Consent &amp; Permissions: Allow group owner consent for selected group owners </t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5196,7 +5196,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5204,7 +5204,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
+          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5220,18 +5220,18 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Conditional Access Policies</t>
+          <t>External Identities</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Conditions: Restricted Locations</t>
+          <t>Identity Providers: Verify external identity providers are known</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5242,7 +5242,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5250,7 +5250,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
+          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Conditional Access Policies</t>
+          <t>External Identities</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Access Controls:  MFA enabled for all users</t>
+          <t>External Collaboration Settings: Guest user access set to 'Guest user access is restricted?'</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5288,7 +5288,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5296,7 +5296,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
+          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5312,18 +5312,18 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Conditional Access Policies</t>
+          <t>External Identities</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Access Controls:  Require MFA for Administrators</t>
+          <t>External Collaboration Settings: Guest invite settings set to  'Only users assigned to specific admin roles'</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5334,7 +5334,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5342,7 +5342,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
+          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5358,12 +5358,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Conditional Access Policies</t>
+          <t>External Identities</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Access Controls:  Require MFA for Azure Management </t>
+          <t xml:space="preserve">External Collaboration Settings: Enable guest self-service sign up via flows set  to 'Disabled' </t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5380,7 +5380,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5388,7 +5388,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
+          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5404,12 +5404,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Conditional Access Policies</t>
+          <t>External Identities</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Access Controls:  Block Legacy Protocols</t>
+          <t>External Collaboration Settings: Collaboration restrictions set to 'Allow invitations to the specified domains'</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5426,7 +5426,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5434,7 +5434,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
+          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5450,18 +5450,18 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Conditional Access Policies</t>
+          <t>External Identities</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Access Controls: Require devices to be marked as compliant</t>
+          <t>Access Reviews: Enabled for all groups</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5472,7 +5472,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
+          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5592,18 +5592,18 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Break Glass Accounts</t>
+          <t>PIM enabled</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>At least two break glass accounts have been created and policy around their use exists</t>
+          <t>Privileged Identity Management enabled</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5614,7 +5614,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5622,7 +5622,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
+          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5633,17 +5633,17 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t>PIM enabled</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Control VM Access leveraging Azure Policy</t>
+          <t>Implement 'just in time' (JIT) access to further lower the exposure time for privileged accounts (reduce standing access)</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5660,7 +5660,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5668,7 +5668,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
+          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5679,23 +5679,23 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t>Password Reset</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Reduce variability in your setup and deployment of VMs by leveraging templates</t>
+          <t>Self-service password reset policy requirement verified compliant.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5706,7 +5706,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
+          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5725,17 +5725,17 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t>Password Reset</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Secure privileged access to deploy VMS by reducing who has access to Resources through Governance</t>
+          <t>Set number of days before users are asked to re-confirm authentication information is not set to zero</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5752,7 +5752,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5760,7 +5760,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
+          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5771,23 +5771,23 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">High Availability </t>
+          <t>Password Reset</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use multiple VMs for your workloads for better availability </t>
+          <t>Set number of methods required to reset password are selected</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5798,7 +5798,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5806,7 +5806,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
+          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5817,23 +5817,23 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">High Availability </t>
+          <t>Privileged administration</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deploy and test a disaster recovery solution </t>
+          <t>Don’t synchronize accounts with the highest privilege access to on-premises resources as you synchronize your enterprise identity systems with cloud directories.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
       <c r="E110" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5844,7 +5844,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
+          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,7 +5852,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
+          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5863,23 +5863,23 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">High Availability </t>
+          <t>Privileged administration</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Availabilty sets</t>
+          <t>Limit the number of Global Administrators to less than 5</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5890,14 +5890,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
+          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5908,23 +5908,23 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">High Availability </t>
+          <t>Privileged administration</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Availability Zones</t>
+          <t>Use groups for Azure AD role assignments and delegate the role assignment</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5935,7 +5935,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5943,7 +5943,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
+          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5954,23 +5954,23 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">High Availability </t>
+          <t>Privileged administration</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Regional fault tolerance </t>
+          <t>Ensure all critical impact admins are managed by enterprise directory to follow organizational policy enforcement.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
       <c r="E113" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5981,7 +5981,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5989,7 +5989,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
+          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6000,17 +6000,17 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Protect against malware</t>
+          <t>Privileged administration</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Install antimalware solutions</t>
+          <t>Configure recurring access reviews to revoke unneeded permissions over time</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6027,7 +6027,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6035,7 +6035,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
+          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6046,23 +6046,23 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Protect against malware</t>
+          <t>Privileged administration</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Integrate antimalware solution with Security Center</t>
+          <t>Ensure critical impact admins use a workstation with elevated security protections and monitoring</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6073,14 +6073,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
+          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6091,17 +6091,17 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Manage VM Updates</t>
+          <t>Tenant</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Keep VMs up to date using Update Management with Azure Automation</t>
+          <t>Establish a single enterprise directory for managing identities of full-time employees and enterprise resources.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6118,14 +6118,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
+          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6136,23 +6136,23 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Manage VM Updates</t>
+          <t>Tenant</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure Windows images for deployment have the most recent level of updates </t>
+          <t>Synchronize your cloud identity with your existing identity systems.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6163,14 +6163,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
+          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
+          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6181,17 +6181,17 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Manage VM Updates</t>
+          <t>Tenant</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Rapidly apply security updates to VMs using Microsoft Defender for Cloud</t>
+          <t>Use cloud identity services to host non-employee accounts such as vendors, partners, and customers, rather than rather than including them in your on-premises directory.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6208,7 +6208,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
+          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>02145901-465d-438e-9309-ccbd979266bc</t>
+          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6227,17 +6227,17 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Encrypt your VHDs</t>
+          <t>Tenant</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Enable encryption on your VMs</t>
+          <t>Disable insecure legacy protocols for internet-facing services.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6254,14 +6254,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
+          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
+          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6272,17 +6272,17 @@
     <row r="120" ht="16.5" customHeight="1" s="13">
       <c r="A120" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>Encrypt your VHDs</t>
+          <t>Tenant</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Add Key Encryption Key (KEK) for added layer of security for encryption </t>
+          <t>Enable single sign-on</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6299,7 +6299,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6307,7 +6307,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
+          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6318,23 +6318,23 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Encrypt your VHDs</t>
+          <t>User Setting</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Take a snapshot of disks before encryption for rollback purposes</t>
+          <t>Disable 'Users can register applications'</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
       <c r="E121" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6345,7 +6345,7 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
         </is>
       </c>
       <c r="I121" s="16" t="n"/>
@@ -6353,7 +6353,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
+          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6364,17 +6364,17 @@
     <row r="122" ht="16.5" customHeight="1" s="13">
       <c r="A122" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restrict direct internet connection </t>
+          <t>User Setting</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure only the central networking group has permissions to networking resources </t>
+          <t>Restrict access to Administrative portal (portal.azure.com) to administrators only</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6391,7 +6391,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
         </is>
       </c>
       <c r="I122" s="16" t="n"/>
@@ -6399,7 +6399,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>5173676a-e466-491e-a835-ad942223e138</t>
+          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6410,17 +6410,17 @@
     <row r="123" ht="16.5" customHeight="1" s="13">
       <c r="A123" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restrict direct internet connection </t>
+          <t>User Setting</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Identity and remediate exposed VMs that allow access from 'ANY' source IP addess</t>
+          <t>Disable 'LinkedIn account connection'</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6437,7 +6437,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
         </is>
       </c>
       <c r="I123" s="16" t="n"/>
@@ -6445,7 +6445,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
+          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6456,17 +6456,17 @@
     <row r="124" ht="16.5" customHeight="1" s="13">
       <c r="A124" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Sentinel</t>
         </is>
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restrict direct internet connection </t>
+          <t>Analytics Rules</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Restrict management ports (RDP, SSH) using Just-in-Time Access</t>
+          <t xml:space="preserve">Customer has enabled Analytics rules and configured Incidents </t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6483,7 +6483,7 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
+          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
         </is>
       </c>
       <c r="I124" s="16" t="n"/>
@@ -6491,7 +6491,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
+          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6502,17 +6502,17 @@
     <row r="125" ht="16.5" customHeight="1" s="13">
       <c r="A125" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Sentinel</t>
         </is>
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restrict direct internet connection </t>
+          <t xml:space="preserve">Architecture </t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Remove internet access and implement jump servers for RDP</t>
+          <t>All tenants contain have Sentinel enabled on at least one Log Analytics workspace</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6529,7 +6529,7 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I125" s="16" t="n"/>
@@ -6537,7 +6537,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
+          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6548,17 +6548,17 @@
     <row r="126" ht="16.5" customHeight="1" s="13">
       <c r="A126" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Sentinel</t>
         </is>
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restrict direct internet connection </t>
+          <t xml:space="preserve">Architecture </t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Remove direct logging into servers using RDP/SSH from internet and implement VPN or express route</t>
+          <t>Customer understands Sentinel architecture</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6575,14 +6575,14 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
+          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
+          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6593,23 +6593,23 @@
     <row r="127" ht="16.5" customHeight="1" s="13">
       <c r="A127" s="22" t="inlineStr">
         <is>
-          <t>VM Security Checks</t>
+          <t>Sentinel</t>
         </is>
       </c>
       <c r="B127" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restrict direct internet connection </t>
+          <t xml:space="preserve">Architecture </t>
         </is>
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Bastion as your RDP/SSH broker for added security and reduction in footprint</t>
+          <t>Customer knows how to monitor Incidents across multiple Sentinel instances</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
       <c r="E127" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6620,14 +6620,14 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
+          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6643,12 +6643,12 @@
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Architecture </t>
+          <t>Data Connectors</t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>All tenants contain have Sentinel enabled on at least one Log Analytics workspace</t>
+          <t>Azure Active Directory in configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6665,14 +6665,14 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
+          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6688,12 +6688,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Architecture </t>
+          <t>Data Connectors</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Customer understands Sentinel architecture</t>
+          <t>Azure Active Directory Identity Protection is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6710,14 +6710,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
+          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6733,18 +6733,18 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Architecture </t>
+          <t>Data Connectors</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Customer knows how to monitor Incidents across multiple Sentinel instances</t>
+          <t>Azure Activity is configured is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6755,14 +6755,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
+          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6778,18 +6778,18 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Data Connectors</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>No Incidents open more than 24 hours</t>
+          <t>Microsoft Defender for Cloud is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
       <c r="E131" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -6800,14 +6800,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
+          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6823,18 +6823,18 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>News &amp; Guides</t>
+          <t>Data Connectors</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Customer have been shown the News &amp; Guides tab</t>
+          <t>Azure Firewall is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
       <c r="E132" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6845,14 +6845,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
+          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -6868,18 +6868,18 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">UEBA </t>
+          <t>Data Connectors</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>UEBA Configured (Sentinel/Settings/Settings/Configure UEBA)</t>
+          <t>Windows Firewall is configured and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
       <c r="E133" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6890,14 +6890,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
+          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory in configured and 'Last Log Received' shows today</t>
+          <t>Security Events is configured with AMA and 'Last Log Received' shows today</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -6935,14 +6935,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
+          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory Identity Protection is configured and 'Last Log Received' shows today</t>
+          <t>Security Events - verify Azure computers are connected and sending data to the workspace</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -6980,14 +6980,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
+          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Azure Activity is configured is configured and 'Last Log Received' shows today</t>
+          <t>Security Events - verify non-Azure computers are connected and sending data to the workspace</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7025,14 +7025,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
+          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud is configured and 'Last Log Received' shows today</t>
+          <t>Connector for AWS</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7070,14 +7070,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
+          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall is configured and 'Last Log Received' shows today</t>
+          <t>Connector for GCP</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7115,14 +7115,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
+          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7138,18 +7138,18 @@
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>Data Connectors</t>
+          <t>News &amp; Guides</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Windows Firewall is configured and 'Last Log Received' shows today</t>
+          <t>Customer have been shown the News &amp; Guides tab</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
       <c r="E139" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7160,14 +7160,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
+          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
+          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7183,18 +7183,18 @@
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Data Connectors</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Security Events is configured with AMA and 'Last Log Received' shows today</t>
+          <t>No Incidents open more than 24 hours</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7205,14 +7205,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
+          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
+          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7228,18 +7228,18 @@
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Data Connectors</t>
+          <t>Settings</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Security Events - verify Azure computers are connected and sending data to the workspace</t>
+          <t>Customer does not have a daily cap enabled</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
       <c r="E141" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7250,14 +7250,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
+          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7273,18 +7273,18 @@
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>Data Connectors</t>
+          <t xml:space="preserve">UEBA </t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Security Events - verify non-Azure computers are connected and sending data to the workspace</t>
+          <t>UEBA Configured (Sentinel/Settings/Settings/Configure UEBA)</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7295,14 +7295,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
+          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7313,17 +7313,17 @@
     <row r="143" ht="16.5" customHeight="1" s="13">
       <c r="A143" s="22" t="inlineStr">
         <is>
-          <t>Sentinel</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B143" s="22" t="inlineStr">
         <is>
-          <t>Data Connectors</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Connector for AWS</t>
+          <t>Control VM Access leveraging Azure Policy</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7340,14 +7340,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
+          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7358,23 +7358,23 @@
     <row r="144" ht="16.5" customHeight="1" s="13">
       <c r="A144" s="22" t="inlineStr">
         <is>
-          <t>Sentinel</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B144" s="22" t="inlineStr">
         <is>
-          <t>Data Connectors</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Connector for GCP</t>
+          <t>Reduce variability in your setup and deployment of VMs by leveraging templates</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
       <c r="E144" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7385,14 +7385,14 @@
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
+          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7403,23 +7403,23 @@
     <row r="145" ht="16.5" customHeight="1" s="13">
       <c r="A145" s="22" t="inlineStr">
         <is>
-          <t>Sentinel</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>Analytics Rules</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Customer has enabled Analytics rules and configured Incidents </t>
+          <t>Secure privileged access to deploy VMS by reducing who has access to Resources through Governance</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
       <c r="E145" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7430,14 +7430,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
+          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
+          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7448,23 +7448,23 @@
     <row r="146" ht="16.5" customHeight="1" s="13">
       <c r="A146" s="22" t="inlineStr">
         <is>
-          <t>Sentinel</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>Settings</t>
+          <t>Encrypt your VHDs</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Customer does not have a daily cap enabled</t>
+          <t>Enable encryption on your VMs</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
       <c r="E146" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7475,14 +7475,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
+          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7493,17 +7493,17 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>Configuration</t>
+          <t>Encrypt your VHDs</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium deployed</t>
+          <t xml:space="preserve">Add Key Encryption Key (KEK) for added layer of security for encryption </t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7520,14 +7520,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
+          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7538,23 +7538,23 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>Configuration</t>
+          <t>Encrypt your VHDs</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Quad zero/force tunning enabled through Azure Firewall</t>
+          <t>Take a snapshot of disks before encryption for rollback purposes</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7565,14 +7565,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
+          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7583,17 +7583,17 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t xml:space="preserve">High Availability </t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>RBAC set to enable only authorized users</t>
+          <t xml:space="preserve">Use multiple VMs for your workloads for better availability </t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7610,14 +7610,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
+          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7628,17 +7628,17 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Diagnostic Settings</t>
+          <t xml:space="preserve">High Availability </t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnostics enabled and sending metrics to a Log Analytics workspace </t>
+          <t xml:space="preserve">Deploy and test a disaster recovery solution </t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7655,14 +7655,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
+          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7673,23 +7673,23 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t xml:space="preserve">High Availability </t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Hubs and virtual networks are protected or connected through Firewall Premium</t>
+          <t>Availability sets</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7700,14 +7700,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
+          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7718,23 +7718,23 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t xml:space="preserve">High Availability </t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Policy: Access controls are configured (RBAC)</t>
+          <t>Availability Zones</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7745,14 +7745,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
+          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7763,23 +7763,23 @@
     <row r="153" ht="16.5" customHeight="1" s="13">
       <c r="A153" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t xml:space="preserve">High Availability </t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Policy: Parent policy is configured </t>
+          <t xml:space="preserve">Regional fault tolerance </t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7790,14 +7790,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
+          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7808,17 +7808,17 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>Manage VM Updates</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Policy: Rule collections are defined</t>
+          <t>Keep VMs up to date using Update Management with Azure Automation</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -7835,14 +7835,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
+          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -7853,23 +7853,23 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>Manage VM Updates</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Policy: DNAT policies are defined</t>
+          <t xml:space="preserve">Ensure Windows images for deployment have the most recent level of updates </t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7880,14 +7880,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
+          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -7898,17 +7898,17 @@
     <row r="156" ht="16.5" customHeight="1" s="13">
       <c r="A156" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B156" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>Manage VM Updates</t>
         </is>
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Policy: Network rules are defined</t>
+          <t>Rapidly apply security updates to VMs using Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -7925,14 +7925,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
+          <t>02145901-465d-438e-9309-ccbd979266bc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -7943,17 +7943,17 @@
     <row r="157" ht="16.5" customHeight="1" s="13">
       <c r="A157" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B157" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>Protect against malware</t>
         </is>
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Policy: Application rules are defined</t>
+          <t>Install antimalware solutions</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -7970,14 +7970,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/features</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
+          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -7988,23 +7988,23 @@
     <row r="158" ht="16.5" customHeight="1" s="13">
       <c r="A158" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B158" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t>Protect against malware</t>
         </is>
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>DNS: Feature understood and applied or not applied</t>
+          <t>Integrate antimalware solution with Security Center</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8015,14 +8015,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
+          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8033,17 +8033,17 @@
     <row r="159" ht="16.5" customHeight="1" s="13">
       <c r="A159" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B159" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t xml:space="preserve">Restrict direct internet connection </t>
         </is>
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Threat Intelligence: Set to Alert &amp; Deny</t>
+          <t xml:space="preserve">Ensure only the central networking group has permissions to networking resources </t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8060,14 +8060,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
+          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
+          <t>5173676a-e466-491e-a835-ad942223e138</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8078,17 +8078,17 @@
     <row r="160" ht="16.5" customHeight="1" s="13">
       <c r="A160" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B160" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t xml:space="preserve">Restrict direct internet connection </t>
         </is>
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Threat Intelligence: Allowed list (justify if they are being used - ie performance)</t>
+          <t>Identity and remediate exposed VMs that allow access from 'ANY' source IP address</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8105,14 +8105,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
+          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8123,17 +8123,17 @@
     <row r="161" ht="16.5" customHeight="1" s="13">
       <c r="A161" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B161" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t xml:space="preserve">Restrict direct internet connection </t>
         </is>
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>TLS enabled</t>
+          <t>Restrict management ports (RDP, SSH) using Just-in-Time Access</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8150,14 +8150,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
+          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8168,17 +8168,17 @@
     <row r="162" ht="16.5" customHeight="1" s="13">
       <c r="A162" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t xml:space="preserve">Restrict direct internet connection </t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>IDPS enabled</t>
+          <t>Remove internet access and implement jump servers for RDP</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8195,14 +8195,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
+          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8213,17 +8213,17 @@
     <row r="163" ht="16.5" customHeight="1" s="13">
       <c r="A163" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Firewall Manager</t>
+          <t xml:space="preserve">Restrict direct internet connection </t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SNAT: Configured </t>
+          <t>Remove direct logging into servers using RDP/SSH from internet and implement VPN or express route</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8240,14 +8240,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
+          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
+          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8258,23 +8258,23 @@
     <row r="164" ht="16.5" customHeight="1" s="13">
       <c r="A164" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>VM Security Checks</t>
         </is>
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>DDOS Protection</t>
+          <t xml:space="preserve">Restrict direct internet connection </t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Enabled for Firewall public  IP's</t>
+          <t>Leverage Azure Bastion as your RDP/SSH broker for added security and reduction in footprint</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8285,14 +8285,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8330,14 +8330,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8375,14 +8375,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8420,14 +8420,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8465,14 +8465,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8510,14 +8510,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8562,7 +8562,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8600,14 +8600,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8616,360 +8616,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10527,7 +11247,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10611,7 +11331,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10667,26 +11387,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F165" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F165" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
